--- a/articles.xlsx
+++ b/articles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="819">
   <si>
     <t>Title</t>
   </si>
@@ -124,15 +124,15 @@
     <t>Numeracy from Literacy: Data Science as an Emergent Skill from Large Language Models</t>
   </si>
   <si>
-    <t>Is ChatGPT A Good Translator? A Preliminary Study</t>
-  </si>
-  <si>
     <t>Mathematical Capabilities of ChatGPT</t>
   </si>
   <si>
     <t>A Prescriptive Learning Analytics Framework: Beyond Predictive Modelling and onto Explainable AI with Prescriptive Analytics and ChatGPT</t>
   </si>
   <si>
+    <t>Grading Conversational Responses Of Chatbots</t>
+  </si>
+  <si>
     <t>Netizens, Academicians, and Information Professionals' Opinions About AI With Special Reference To ChatGPT</t>
   </si>
   <si>
@@ -157,208 +157,817 @@
     <t>Will ChatGPT get you caught? Rethinking of Plagiarism Detection</t>
   </si>
   <si>
+    <t>Better by you, better than me, chatgpt3 as writing assistance in students essays</t>
+  </si>
+  <si>
+    <t>Can ChatGPT Write a Good Boolean Query for Systematic Review Literature Search?</t>
+  </si>
+  <si>
+    <t>Reliable Natural Language Understanding with Large Language Models and Answer Set Programming</t>
+  </si>
+  <si>
+    <t>Scamming the Scammers: Using ChatGPT to Reply Mails for Wasting Time and Resources</t>
+  </si>
+  <si>
+    <t>Semantic Communications with Ordered Importance using ChatGPT</t>
+  </si>
+  <si>
+    <t>Chat2VIS: Generating Data Visualisations via Natural Language using ChatGPT, Codex and GPT-3 Large Language Models</t>
+  </si>
+  <si>
+    <t>Learning gain differences between ChatGPT and human tutor generated algebra hints</t>
+  </si>
+  <si>
+    <t>Million-scale Object Detection with Large Vision Model</t>
+  </si>
+  <si>
+    <t>ChatCAD: Interactive Computer-Aided Diagnosis on Medical Image using Large Language Models</t>
+  </si>
+  <si>
+    <t>Conversational AI-Powered Design: ChatGPT as Designer, User, and Product</t>
+  </si>
+  <si>
+    <t>A Pilot Evaluation of ChatGPT and DALL-E 2 on Decision Making and Spatial Reasoning</t>
+  </si>
+  <si>
+    <t>Is ChatGPT a General-Purpose Natural Language Processing Task Solver?</t>
+  </si>
+  <si>
+    <t>Machine Generated Text: A Comprehensive Survey of Threat Models and Detection Methods</t>
+  </si>
+  <si>
+    <t>Exploring the Limits of ChatGPT for Query or Aspect-based Text Summarization</t>
+  </si>
+  <si>
+    <t>AI Usage Cards: Responsibly Reporting AI-generated Content</t>
+  </si>
+  <si>
+    <t>How Generative AI models such as ChatGPT can be (Mis)Used in SPC Practice, Education, and Research? An Exploratory Study</t>
+  </si>
+  <si>
+    <t>Combining Generative Artificial Intelligence (AI) and the Internet: Heading towards Evolution or Degradation?</t>
+  </si>
+  <si>
+    <t>How Good Are GPT Models at Machine Translation? A Comprehensive Evaluation</t>
+  </si>
+  <si>
+    <t>Triple birthday matches in the Senate: Lies, damned lies and chatGPT</t>
+  </si>
+  <si>
+    <t>Linguistic ambiguity analysis in ChatGPT</t>
+  </si>
+  <si>
+    <t>Zero-Shot Information Extraction via Chatting with ChatGPT</t>
+  </si>
+  <si>
+    <t>ChatGPT: A Meta-Analysis after 2.5 Months</t>
+  </si>
+  <si>
+    <t>A Prompt Pattern Catalog to Enhance Prompt Engineering with ChatGPT</t>
+  </si>
+  <si>
+    <t>ChatGPT: Jack of all trades, master of none</t>
+  </si>
+  <si>
+    <t>Exploring AI Ethics of ChatGPT: A Diagnostic Analysis</t>
+  </si>
+  <si>
+    <t>Talking Abortion (Mis)information with ChatGPT on TikTok</t>
+  </si>
+  <si>
+    <t>Dr ChatGPT, tell me what I want to hear: How prompt knowledge impacts health answer correctness</t>
+  </si>
+  <si>
+    <t>Fast Attention Requires Bounded Entries</t>
+  </si>
+  <si>
+    <t>Towards Human-Bot Collaborative Software Architecting with ChatGPT</t>
+  </si>
+  <si>
+    <t>Developing Responsible Chatbots for Financial Services: A Pattern-Oriented Responsible AI Engineering Approach</t>
+  </si>
+  <si>
+    <t>An Independent Evaluation of ChatGPT on Mathematical Word Problems (MWP)</t>
+  </si>
+  <si>
+    <t>ThoughtSource: A central hub for large language model reasoning data</t>
+  </si>
+  <si>
+    <t>Large Language Models Are State-of-the-Art Evaluators of Translation Quality</t>
+  </si>
+  <si>
+    <t>A Multitask, Multilingual, Multimodal Evaluation of ChatGPT on Reasoning, Hallucination, and Interactivity</t>
+  </si>
+  <si>
+    <t>Succinct Representations for Concepts</t>
+  </si>
+  <si>
+    <t>UZH_CLyp at SemEval-2023 Task 9: Head-First Fine-Tuning and ChatGPT Data Generation for Cross-Lingual Learning in Tweet Intimacy Prediction</t>
+  </si>
+  <si>
+    <t>A Human-Centered Safe Robot Reinforcement Learning Framework with Interactive Behaviors</t>
+  </si>
+  <si>
+    <t>Can ChatGPT Understand Too? A Comparative Study on ChatGPT and Fine-tuned BERT</t>
+  </si>
+  <si>
+    <t>Let's have a chat! A Conversation with ChatGPT: Technology, Applications, and Limitations</t>
+  </si>
+  <si>
+    <t>Ask and You Shall Receive (a Graph Drawing): Testing ChatGPT's Potential to Apply Graph Layout Algorithms</t>
+  </si>
+  <si>
+    <t>NL2CMD: An Updated Workflow for Natural Language to Bash Commands Translation</t>
+  </si>
+  <si>
+    <t>Will Affective Computing Emerge from Foundation Models and General AI? A First Evaluation on ChatGPT</t>
+  </si>
+  <si>
+    <t>Perspectives on the Social Impacts of Reinforcement Learning with Human Feedback</t>
+  </si>
+  <si>
+    <t>Can ChatGPT Assess Human Personalities? A General Evaluation Framework</t>
+  </si>
+  <si>
+    <t>Zeroth-Order Optimization Meets Human Feedback: Provable Learning via Ranking Oracles</t>
+  </si>
+  <si>
+    <t>Making a Computational Attorney</t>
+  </si>
+  <si>
+    <t>Is ChatGPT a Good NLG Evaluator? A Preliminary Study</t>
+  </si>
+  <si>
+    <t>Extracting Accurate Materials Data from Research Papers with Conversational Language Models and Prompt Engineering -- Example of ChatGPT</t>
+  </si>
+  <si>
+    <t>A Comprehensive Survey of AI-Generated Content (AIGC): A History of Generative AI from GAN to ChatGPT</t>
+  </si>
+  <si>
+    <t>Many bioinformatics programming tasks can be automated with ChatGPT</t>
+  </si>
+  <si>
+    <t>ChatGPT: Beginning of an End of Manual Linguistic Data Annotation? Use Case of Automatic Genre Identification</t>
+  </si>
+  <si>
+    <t>Visual ChatGPT: Talking, Drawing and Editing with Visual Foundation Models</t>
+  </si>
+  <si>
+    <t>FaceChat: An Emotion-Aware Face-to-face Dialogue Framework</t>
+  </si>
+  <si>
+    <t>The Carbon Emissions of Writing and Illustrating Are Lower for AI than for Humans</t>
+  </si>
+  <si>
+    <t>Check Your Facts and Try Again: Improving Large Language Models with External Knowledge and Automated Feedback</t>
+  </si>
+  <si>
+    <t>Seeing ChatGPT Through Students' Eyes: An Analysis of TikTok Data</t>
+  </si>
+  <si>
+    <t>Exploring the Feasibility of ChatGPT for Event Extraction</t>
+  </si>
+  <si>
+    <t>Personalisation within bounds: A risk taxonomy and policy framework for the alignment of large language models with personalised feedback</t>
+  </si>
+  <si>
+    <t>Does ChatGPT resemble humans in language use?</t>
+  </si>
+  <si>
+    <t>ChatGPT as the Transportation Equity Information Source for Scientific Writing</t>
+  </si>
+  <si>
+    <t>Consistency Analysis of ChatGPT</t>
+  </si>
+  <si>
+    <t>Art-ificial Intelligence: The Effect of AI Disclosure on Evaluations of Creative Content</t>
+  </si>
+  <si>
+    <t>ChatGPT Prompt Patterns for Improving Code Quality, Refactoring, Requirements Elicitation, and Software Design</t>
+  </si>
+  <si>
     <t>ChatGPT and Software Testing Education: Promises &amp; Perils</t>
   </si>
   <si>
-    <t>Better by you, better than me, chatgpt3 as writing assistance in students essays</t>
-  </si>
-  <si>
-    <t>Can ChatGPT Write a Good Boolean Query for Systematic Review Literature Search?</t>
+    <t>Context-based Ontology Modelling for Database: Enabling ChatGPT for Semantic Database Management</t>
+  </si>
+  <si>
+    <t>A comprehensive evaluation of ChatGPT's zero-shot Text-to-SQL capability</t>
+  </si>
+  <si>
+    <t>ChatGPT Asks, BLIP-2 Answers: Automatic Questioning Towards Enriched Visual Descriptions</t>
+  </si>
+  <si>
+    <t>Thinking Upstream: Ethics and Policy Opportunities in AI Supply Chains</t>
+  </si>
+  <si>
+    <t>Exploring ChatGPT's Ability to Rank Content: A Preliminary Study on Consistency with Human Preferences</t>
+  </si>
+  <si>
+    <t>Evaluation of ChatGPT as a Question Answering System for Answering Complex Questions</t>
+  </si>
+  <si>
+    <t>ChatGPT or Grammarly? Evaluating ChatGPT on Grammatical Error Correction Benchmark</t>
+  </si>
+  <si>
+    <t>Is ChatGPT better than Human Annotators? Potential and Limitations of ChatGPT in Explaining Implicit Hate Speech</t>
+  </si>
+  <si>
+    <t>SelfCheckGPT: Zero-Resource Black-Box Hallucination Detection for Generative Large Language Models</t>
+  </si>
+  <si>
+    <t>Prompting Large Language Models With the Socratic Method</t>
+  </si>
+  <si>
+    <t>ODIN: On-demand Data Formulation to Mitigate Dataset Lock-in</t>
+  </si>
+  <si>
+    <t>How well do Large Language Models perform in Arithmetic tasks?</t>
+  </si>
+  <si>
+    <t>An Empirical Study of Pre-trained Language Models in Simple Knowledge Graph Question Answering</t>
+  </si>
+  <si>
+    <t>A Comprehensive Capability Analysis of GPT-3 and GPT-3.5 Series Models</t>
+  </si>
+  <si>
+    <t>How will Language Modelers like ChatGPT Affect Occupations and Industries?</t>
+  </si>
+  <si>
+    <t>Is ChatGPT A Good Translator? Yes With GPT-4 As The Engine</t>
+  </si>
+  <si>
+    <t>DeID-GPT: Zero-shot Medical Text De-Identification by GPT-4</t>
+  </si>
+  <si>
+    <t>AugGPT: Leveraging ChatGPT for Text Data Augmentation</t>
+  </si>
+  <si>
+    <t>On the Educational Impact of ChatGPT: Is Artificial Intelligence Ready to Obtain a University Degree?</t>
+  </si>
+  <si>
+    <t>MM-REACT: Prompting ChatGPT for Multimodal Reasoning and Action</t>
+  </si>
+  <si>
+    <t>Large AI Models in Health Informatics: Applications, Challenges, and the Future</t>
+  </si>
+  <si>
+    <t>ChatGPT Is on the Horizon: Could a Large Language Model Be All We Need for Intelligent Transportation?</t>
+  </si>
+  <si>
+    <t>A Complete Survey on Generative AI (AIGC): Is ChatGPT from GPT-4 to GPT-5 All You Need?</t>
+  </si>
+  <si>
+    <t>Chinese Intermediate English Learners outdid ChatGPT in deep cohesion: Evidence from English narrative writing</t>
+  </si>
+  <si>
+    <t>Artificial muses: Generative Artificial Intelligence Chatbots Have Risen to Human-Level Creativity</t>
+  </si>
+  <si>
+    <t>Fundamentals of Generative Large Language Models and Perspectives in Cyber-Defense</t>
+  </si>
+  <si>
+    <t>UPRISE: Universal Prompt Retrieval for Improving Zero-Shot Evaluation</t>
+  </si>
+  <si>
+    <t>ChatGPT Participates in a Computer Science Exam</t>
+  </si>
+  <si>
+    <t>Can we trust the evaluation on ChatGPT?</t>
+  </si>
+  <si>
+    <t>Cross-Layer Design for AI Acceleration with Non-Coherent Optical Computing</t>
+  </si>
+  <si>
+    <t>Is ChatGPT A Good Keyphrase Generator? A Preliminary Study</t>
+  </si>
+  <si>
+    <t>ChatGPT for Shaping the Future of Dentistry: The Potential of Multi-Modal Large Language Model</t>
+  </si>
+  <si>
+    <t>Towards Making the Most of ChatGPT for Machine Translation</t>
+  </si>
+  <si>
+    <t>Error Analysis Prompting Enables Human-Like Translation Evaluation in Large Language Models: A Case Study on ChatGPT</t>
+  </si>
+  <si>
+    <t>Generative AI Assistants in Software Development Education</t>
+  </si>
+  <si>
+    <t>Paraphrase Detection: Human vs. Machine Content</t>
+  </si>
+  <si>
+    <t>An Equal-Size Hard EM Algorithm for Diverse Dialogue Generation</t>
+  </si>
+  <si>
+    <t>The Shaky Foundations of Clinical Foundation Models: A Survey of Large Language Models and Foundation Models for EMRs</t>
+  </si>
+  <si>
+    <t>Chat2VIS: Fine-Tuning Data Visualisations using Multilingual Natural Language Text and Pre-Trained Large Language Models</t>
+  </si>
+  <si>
+    <t>ChatGPT for Programming Numerical Methods</t>
+  </si>
+  <si>
+    <t>Can Large Language Models assist in Hazard Analysis?</t>
+  </si>
+  <si>
+    <t>Guiding AI-Generated Digital Content with Wireless Perception</t>
+  </si>
+  <si>
+    <t>ICL-D3IE: In-Context Learning with Diverse Demonstrations Updating for Document Information Extraction</t>
+  </si>
+  <si>
+    <t>Mathematical Characterization of Signal Semantics and Rethinking of the Mathematical Theory of Information</t>
+  </si>
+  <si>
+    <t>Exploring the Impact of Instruction Data Scaling on Large Language Models: An Empirical Study on Real-World Use Cases</t>
+  </si>
+  <si>
+    <t>AI and the FCI: Can ChatGPT Project an Understanding of Introductory Physics?</t>
+  </si>
+  <si>
+    <t>MGTBench: Benchmarking Machine-Generated Text Detection</t>
+  </si>
+  <si>
+    <t>NL4Opt Competition: Formulating Optimization Problems Based on Their Natural Language Descriptions</t>
+  </si>
+  <si>
+    <t>ChatGPT Outperforms Crowd-Workers for Text-Annotation Tasks</t>
+  </si>
+  <si>
+    <t>Linguistically Informed ChatGPT Prompts to Enhance Japanese-Chinese Machine Translation: A Case Study on Attributive Clauses</t>
+  </si>
+  <si>
+    <t>ChatGPT4PCG Competition: Character-like Level Generation for Science Birds</t>
+  </si>
+  <si>
+    <t>Comparative Analysis of CHATGPT and the evolution of language models</t>
+  </si>
+  <si>
+    <t>Solving Regularized Exp, Cosh and Sinh Regression Problems</t>
+  </si>
+  <si>
+    <t>Evaluation of ChatGPT for NLP-based Mental Health Applications</t>
+  </si>
+  <si>
+    <t>Ecosystem Graphs: The Social Footprint of Foundation Models</t>
+  </si>
+  <si>
+    <t>Hallucinations in Large Multilingual Translation Models</t>
+  </si>
+  <si>
+    <t>A Perspectival Mirror of the Elephant: Investigating Language Bias on Google, ChatGPT, Wikipedia, and YouTube</t>
+  </si>
+  <si>
+    <t>ChatGPT or academic scientist? Distinguishing authorship with over 99% accuracy using off-the-shelf machine learning tools</t>
+  </si>
+  <si>
+    <t>Zero-shot Clinical Entity Recognition using ChatGPT</t>
+  </si>
+  <si>
+    <t>ChatGPT is a Knowledgeable but Inexperienced Solver: An Investigation of Commonsense Problem in Large Language Models</t>
+  </si>
+  <si>
+    <t>Translating Radiology Reports into Plain Language using ChatGPT and GPT-4 with Prompt Learning: Promising Results, Limitations, and Potential</t>
+  </si>
+  <si>
+    <t>Ten Quick Tips for Harnessing the Power of ChatGPT/GPT-4 in Computational Biology</t>
+  </si>
+  <si>
+    <t>TaskMatrix.AI: Completing Tasks by Connecting Foundation Models with Millions of APIs</t>
+  </si>
+  <si>
+    <t>RetClean: Retrieval-Based Data Cleaning Using Foundation Models and Data Lakes</t>
+  </si>
+  <si>
+    <t>On the Robustness of ChatGPT: An Adversarial and Out-of-distribution Perspective</t>
+  </si>
+  <si>
+    <t>Unleashing the Power of Edge-Cloud Generative AI in Mobile Networks: A Survey of AIGC Services</t>
+  </si>
+  <si>
+    <t>Questions of science: chatting with ChatGPT about complex systems</t>
+  </si>
+  <si>
+    <t>Deep Generative Model and Its Applications in Efficient Wireless Network Management: A Tutorial and Case Study</t>
+  </si>
+  <si>
+    <t>Matrix diagonalization and singular value decomposition: Static SageMath and dynamic ChatGPT juxtaposed</t>
+  </si>
+  <si>
+    <t>Synthesis of Mathematical programs from Natural Language Specifications</t>
+  </si>
+  <si>
+    <t>Yes but.. Can ChatGPT Identify Entities in Historical Documents?</t>
+  </si>
+  <si>
+    <t>WavCaps: A ChatGPT-Assisted Weakly-Labelled Audio Captioning Dataset for Audio-Language Multimodal Research</t>
+  </si>
+  <si>
+    <t>A Comprehensive Survey on Pretrained Foundation Models: A History from BERT to ChatGPT</t>
+  </si>
+  <si>
+    <t>Prompting Multilingual Large Language Models to Generate Code-Mixed Texts: The Case of South East Asian Languages</t>
+  </si>
+  <si>
+    <t>ChatGPT scores a bad birdie in counting gravitational-wave chirps</t>
+  </si>
+  <si>
+    <t>Comparing Abstractive Summaries Generated by ChatGPT to Real Summaries Through Blinded Reviewers and Text Classification Algorithms</t>
+  </si>
+  <si>
+    <t>Towards Mitigating ChatGPT's Negative Impact on Education: Optimizing Question Design through Bloom's Taxonomy</t>
+  </si>
+  <si>
+    <t>Assessing Cross-Cultural Alignment between ChatGPT and Human Societies: An Empirical Study</t>
+  </si>
+  <si>
+    <t>Pair Programming with Large Language Models for Sampling and Estimation of Copulas</t>
+  </si>
+  <si>
+    <t>ChatGPT and a New Academic Reality: Artificial Intelligence-Written Research Papers and the Ethics of the Large Language Models in Scholarly Publishing</t>
+  </si>
+  <si>
+    <t>Large language models can rate news outlet credibility</t>
+  </si>
+  <si>
+    <t>Evaluating Large Language Models on a Highly-specialized Topic, Radiation Oncology Physics</t>
+  </si>
+  <si>
+    <t>Network Visualization of ChatGPT Research: a study based on term and keyword co-occurrence network analysis</t>
+  </si>
+  <si>
+    <t>Block-wise Bit-Compression of Transformer-based Models</t>
+  </si>
+  <si>
+    <t>Keep the Conversation Going: Fixing 162 out of 337 bugs for $0.42 each using ChatGPT</t>
+  </si>
+  <si>
+    <t>LLMMaps -- A Visual Metaphor for Stratified Evaluation of Large Language Models</t>
+  </si>
+  <si>
+    <t>HuggingGPT: Solving AI Tasks with ChatGPT and its Friends in HuggingFace</t>
+  </si>
+  <si>
+    <t>Can AI Chatbots Pass the Fundamentals of Engineering (FE) and Principles and Practice of Engineering (PE) Structural Exams?</t>
+  </si>
+  <si>
+    <t>Understanding Individual and Team-based Human Factors in Detecting Deepfake Texts</t>
+  </si>
+  <si>
+    <t>Neural Theory-of-Mind? On the Limits of Social Intelligence in Large LMs</t>
+  </si>
+  <si>
+    <t>Safety Analysis in the Era of Large Language Models: A Case Study of STPA using ChatGPT</t>
+  </si>
+  <si>
+    <t>On the Prime Number Divisibility by Deep Learning</t>
+  </si>
+  <si>
+    <t>A Categorical Archive of ChatGPT Failures</t>
+  </si>
+  <si>
+    <t>Integrating Commercial and Social Determinants of Health: A Unified Ontology for Non-Clinical Determinants of Health</t>
+  </si>
+  <si>
+    <t>Blockwise Compression of Transformer-based Models without Retraining</t>
+  </si>
+  <si>
+    <t>Chat-REC: Towards Interactive and Explainable LLMs-Augmented Recommender System</t>
+  </si>
+  <si>
+    <t>One Small Step for Generative AI, One Giant Leap for AGI: A Complete Survey on ChatGPT in AIGC Era</t>
+  </si>
+  <si>
+    <t>Baize: An Open-Source Chat Model with Parameter-Efficient Tuning on Self-Chat Data</t>
+  </si>
+  <si>
+    <t>Can AI Put Gamma-Ray Astrophysicists Out of a Job?</t>
+  </si>
+  <si>
+    <t>Is ChatGPT a Highly Fluent Grammatical Error Correction System? A Comprehensive Evaluation</t>
+  </si>
+  <si>
+    <t>Using Language Models For Knowledge Acquisition in Natural Language Reasoning Problems</t>
+  </si>
+  <si>
+    <t>LLM-Adapters: An Adapter Family for Parameter-Efficient Fine-Tuning of Large Language Models</t>
+  </si>
+  <si>
+    <t>Large Language Models are Edge-Case Fuzzers: Testing Deep Learning Libraries via FuzzGPT</t>
+  </si>
+  <si>
+    <t>Unleashing the Power of ChatGPT for Translation: An Empirical Study</t>
+  </si>
+  <si>
+    <t>Document-Level Machine Translation with Large Language Models</t>
+  </si>
+  <si>
+    <t>To ChatGPT, or not to ChatGPT: That is the question!</t>
+  </si>
+  <si>
+    <t>Evaluating GPT-4 and ChatGPT on Japanese Medical Licensing Examinations</t>
+  </si>
+  <si>
+    <t>Regulating ChatGPT and other Large Generative AI Models</t>
+  </si>
+  <si>
+    <t>Evaluation of ChatGPT Family of Models for Biomedical Reasoning and Classification</t>
+  </si>
+  <si>
+    <t>Human-like Summarization Evaluation with ChatGPT</t>
+  </si>
+  <si>
+    <t>Revolutionizing Single Cell Analysis: The Power of Large Language Models for Cell Type Annotation</t>
+  </si>
+  <si>
+    <t>Opportunities and challenges of ChatGPT for design knowledge management</t>
+  </si>
+  <si>
+    <t>Can Large Language Models Play Text Games Well? Current State-of-the-Art and Open Questions</t>
+  </si>
+  <si>
+    <t>Zero-Shot Cross-Lingual Summarization via Large Language Models</t>
+  </si>
+  <si>
+    <t>Investigating Chain-of-thought with ChatGPT for Stance Detection on Social Media</t>
+  </si>
+  <si>
+    <t>ChatGPT-Crawler: Find out if ChatGPT really knows what it's talking about</t>
+  </si>
+  <si>
+    <t>On the Evaluations of ChatGPT and Emotion-enhanced Prompting for Mental Health Analysis</t>
+  </si>
+  <si>
+    <t>Opinion Mining from YouTube Captions Using ChatGPT: A Case Study of Street Interviews Polling the 2023 Turkish Elections</t>
+  </si>
+  <si>
+    <t>Generative Recommendation: Towards Next-generation Recommender Paradigm</t>
+  </si>
+  <si>
+    <t>ChatPipe: Orchestrating Data Preparation Program by Optimizing Human-ChatGPT Interactions</t>
+  </si>
+  <si>
+    <t>What does ChatGPT return about human values? Exploring value bias in ChatGPT using a descriptive value theory</t>
+  </si>
+  <si>
+    <t>Generative AI for learning: Investigating the potential of synthetic learning videos</t>
+  </si>
+  <si>
+    <t>Complex QA and language models hybrid architectures, Survey</t>
+  </si>
+  <si>
+    <t>Beyond Privacy: Navigating the Opportunities and Challenges of Synthetic Data</t>
+  </si>
+  <si>
+    <t>Towards Automated Urban Planning: When Generative and ChatGPT-like AI Meets Urban Planning</t>
+  </si>
+  <si>
+    <t>Summary of ChatGPT/GPT-4 Research and Perspective Towards the Future of Large Language Models</t>
+  </si>
+  <si>
+    <t>Can ChatGPT and Bard Generate Aligned Assessment Items? A Reliability Analysis against Human Performance</t>
+  </si>
+  <si>
+    <t>Extractive Summarization via ChatGPT for Faithful Summary Generation</t>
+  </si>
+  <si>
+    <t>A Preliminary Evaluation of ChatGPT for Zero-shot Dialogue Understanding</t>
+  </si>
+  <si>
+    <t>Is ChatGPT a Good Sentiment Analyzer? A Preliminary Study</t>
+  </si>
+  <si>
+    <t>The Wall Street Neophyte: A Zero-Shot Analysis of ChatGPT Over MultiModal Stock Movement Prediction Challenges</t>
+  </si>
+  <si>
+    <t>How would Stance Detection Techniques Evolve after the Launch of ChatGPT?</t>
+  </si>
+  <si>
+    <t>Exploring the Use of Large Language Models for Reference-Free Text Quality Evaluation: A Preliminary Empirical Study</t>
+  </si>
+  <si>
+    <t>Multilingual Machine Translation with Large Language Models: Empirical Results and Analysis</t>
+  </si>
+  <si>
+    <t>Does Synthetic Data Generation of LLMs Help Clinical Text Mining?</t>
+  </si>
+  <si>
+    <t>Advancing Medical Imaging with Language Models: A Journey from N-grams to ChatGPT</t>
+  </si>
+  <si>
+    <t>Boosting Cross-task Transferability of Adversarial Patches with Visual Relations</t>
+  </si>
+  <si>
+    <t>Evaluating AIGC Detectors on Code Content</t>
+  </si>
+  <si>
+    <t>Multi-step Jailbreaking Privacy Attacks on ChatGPT</t>
+  </si>
+  <si>
+    <t>Toxicity in ChatGPT: Analyzing Persona-assigned Language Models</t>
+  </si>
+  <si>
+    <t>Chatbots and ChatGPT: A Bibliometric Analysis and Systematic Review of Publications in Web of Science and Scopus Databases</t>
+  </si>
+  <si>
+    <t>Zero-shot Temporal Relation Extraction with ChatGPT</t>
+  </si>
+  <si>
+    <t>ChatGPT Beyond English: Towards a Comprehensive Evaluation of Large Language Models in Multilingual Learning</t>
+  </si>
+  <si>
+    <t>Unleashing ChatGPT on the Metaverse: Savior or Destroyer?</t>
+  </si>
+  <si>
+    <t>Using Multiple RDF Knowledge Graphs for Enriching ChatGPT Responses</t>
+  </si>
+  <si>
+    <t>How do physics students evaluate ChatGPT responses on comprehension questions? A study on the perceived scientific accuracy and linguistic quality</t>
+  </si>
+  <si>
+    <t>Evaluation of ChatGPT Model for Vulnerability Detection</t>
+  </si>
+  <si>
+    <t>Detection of Fake Generated Scientific Abstracts</t>
+  </si>
+  <si>
+    <t>Unlocking the Potential of ChatGPT: A Comprehensive Exploration of its Applications, Advantages, Limitations, and Future Directions in Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Distinguishing ChatGPT(-3.5, -4)-generated and human-written papers through Japanese stylometric analysis</t>
+  </si>
+  <si>
+    <t>AGIEval: A Human-Centric Benchmark for Evaluating Foundation Models</t>
+  </si>
+  <si>
+    <t>ChatGPT as a Factual Inconsistency Evaluator for Text Summarization</t>
+  </si>
+  <si>
+    <t>Video ChatCaptioner: Towards Enriched Spatiotemporal Descriptions</t>
+  </si>
+  <si>
+    <t>Perspectives on Large Language Models for Relevance Judgment</t>
+  </si>
+  <si>
+    <t>ChatGPT-4 Outperforms Experts and Crowd Workers in Annotating Political Twitter Messages with Zero-Shot Learning</t>
   </si>
   <si>
     <t>ChatGPT and Other Large Language Models as Evolutionary Engines for Online Interactive Collaborative Game Design</t>
   </si>
   <si>
-    <t>Reliable Natural Language Understanding with Large Language Models and Answer Set Programming</t>
-  </si>
-  <si>
-    <t>Regulating ChatGPT and other Large Generative AI Models</t>
-  </si>
-  <si>
-    <t>Is ChatGPT better than Human Annotators? Potential and Limitations of ChatGPT in Explaining Implicit Hate Speech</t>
-  </si>
-  <si>
-    <t>Semantic Communications with Ordered Importance using ChatGPT</t>
-  </si>
-  <si>
-    <t>Chat2VIS: Generating Data Visualisations via Natural Language using ChatGPT, Codex and GPT-3 Large Language Models</t>
-  </si>
-  <si>
-    <t>Learning gain differences between ChatGPT and human tutor generated algebra hints</t>
-  </si>
-  <si>
-    <t>Million-scale Object Detection with Large Vision Model</t>
-  </si>
-  <si>
-    <t>ChatCAD: Interactive Computer-Aided Diagnosis on Medical Image using Large Language Models</t>
-  </si>
-  <si>
-    <t>Conversational AI-Powered Design: ChatGPT as Designer, User, and Product</t>
-  </si>
-  <si>
-    <t>A Pilot Evaluation of ChatGPT and DALL-E 2 on Decision Making and Spatial Reasoning</t>
-  </si>
-  <si>
-    <t>Is ChatGPT a General-Purpose Natural Language Processing Task Solver?</t>
-  </si>
-  <si>
-    <t>Machine Generated Text: A Comprehensive Survey of Threat Models and Detection Methods</t>
-  </si>
-  <si>
-    <t>Exploring the Limits of ChatGPT for Query or Aspect-based Text Summarization</t>
-  </si>
-  <si>
-    <t>AI Usage Cards: Responsibly Reporting AI-generated Content</t>
-  </si>
-  <si>
-    <t>How Generative AI models such as ChatGPT can be (Mis)Used in SPC Practice, Education, and Research? An Exploratory Study</t>
-  </si>
-  <si>
-    <t>Combining Generative Artificial Intelligence (AI) and the Internet: Heading towards Evolution or Degradation?</t>
-  </si>
-  <si>
-    <t>How Good Are GPT Models at Machine Translation? A Comprehensive Evaluation</t>
-  </si>
-  <si>
-    <t>How would Stance Detection Techniques Evolve after the Launch of ChatGPT?</t>
-  </si>
-  <si>
-    <t>A Comprehensive Survey on Pretrained Foundation Models: A History from BERT to ChatGPT</t>
-  </si>
-  <si>
-    <t>Triple birthday matches in the Senate: Lies, damned lies and chatGPT</t>
-  </si>
-  <si>
-    <t>Linguistic ambiguity analysis in ChatGPT</t>
-  </si>
-  <si>
-    <t>Zero-Shot Information Extraction via Chatting with ChatGPT</t>
-  </si>
-  <si>
-    <t>ChatGPT: A Meta-Analysis after 2.5 Months</t>
-  </si>
-  <si>
-    <t>A Prompt Pattern Catalog to Enhance Prompt Engineering with ChatGPT</t>
-  </si>
-  <si>
-    <t>ChatGPT: Jack of all trades, master of none</t>
-  </si>
-  <si>
-    <t>Exploring AI Ethics of ChatGPT: A Diagnostic Analysis</t>
-  </si>
-  <si>
-    <t>Dr ChatGPT, tell me what I want to hear: How prompt knowledge impacts health answer correctness</t>
-  </si>
-  <si>
-    <t>Fast Attention Requires Bounded Entries</t>
-  </si>
-  <si>
-    <t>Towards Human-Bot Collaborative Software Architecting with ChatGPT</t>
-  </si>
-  <si>
-    <t>Developing Responsible Chatbots for Financial Services: A Pattern-Oriented Responsible AI Engineering Approach</t>
-  </si>
-  <si>
-    <t>Cross-Lingual Summarization via ChatGPT</t>
-  </si>
-  <si>
-    <t>ChatAug: Leveraging ChatGPT for Text Data Augmentation</t>
-  </si>
-  <si>
-    <t>An Independent Evaluation of ChatGPT on Mathematical Word Problems (MWP)</t>
-  </si>
-  <si>
-    <t>ThoughtSource: A central hub for large language model reasoning data</t>
-  </si>
-  <si>
-    <t>Large Language Models Are State-of-the-Art Evaluators of Translation Quality</t>
-  </si>
-  <si>
-    <t>A Multitask, Multilingual, Multimodal Evaluation of ChatGPT on Reasoning, Hallucination, and Interactivity</t>
-  </si>
-  <si>
-    <t>Succinct Representations for Concepts</t>
-  </si>
-  <si>
-    <t>On the Robustness of ChatGPT: An Adversarial and Out-of-distribution Perspective</t>
-  </si>
-  <si>
-    <t>AI and the FCI: Can ChatGPT Project an Understanding of Introductory Physics?</t>
-  </si>
-  <si>
-    <t>How will Language Modelers like ChatGPT Affect Occupations and Industries?</t>
-  </si>
-  <si>
-    <t>UZH_CLyp at SemEval-2023 Task 9: Head-First Fine-Tuning and ChatGPT Data Generation for Cross-Lingual Learning in Tweet Intimacy Prediction</t>
-  </si>
-  <si>
-    <t>A Human-Centered Safe Robot Reinforcement Learning Framework with Interactive Behaviors</t>
-  </si>
-  <si>
-    <t>Can ChatGPT Understand Too? A Comparative Study on ChatGPT and Fine-tuned BERT</t>
-  </si>
-  <si>
-    <t>Let's have a chat! A Conversation with ChatGPT: Technology, Applications, and Limitations</t>
-  </si>
-  <si>
-    <t>NL2CMD: An Updated Workflow for Natural Language to Bash Commands Translation</t>
-  </si>
-  <si>
-    <t>Will Affective Computing Emerge from Foundation Models and General AI? A First Evaluation on ChatGPT</t>
-  </si>
-  <si>
-    <t>Perspectives on the Social Impacts of Reinforcement Learning with Human Feedback</t>
-  </si>
-  <si>
-    <t>A Categorical Archive of ChatGPT Failures</t>
-  </si>
-  <si>
-    <t>ChatGPT is on the horizon: Could a large language model be all we need for Intelligent Transportation?</t>
-  </si>
-  <si>
-    <t>Can ChatGPT Assess Human Personalities? A General Evaluation Framework</t>
-  </si>
-  <si>
-    <t>Zeroth-Order Optimization Meets Human Feedback: Provable Learning via Ranking Oracles</t>
-  </si>
-  <si>
-    <t>Making a Computational Attorney</t>
-  </si>
-  <si>
-    <t>Is ChatGPT a Good NLG Evaluator? A Preliminary Study</t>
-  </si>
-  <si>
-    <t>Extracting Accurate Materials Data from Research Papers with Conversational Language Models and Prompt Engineering -- Example of ChatGPT</t>
-  </si>
-  <si>
-    <t>A Comprehensive Survey of AI-Generated Content (AIGC): A History of Generative AI from GAN to ChatGPT</t>
-  </si>
-  <si>
-    <t>Does Synthetic Data Generation of LLMs Help Clinical Text Mining?</t>
-  </si>
-  <si>
-    <t>ChatGPT: Beginning of an End of Manual Linguistic Data Annotation? Use Case of Automatic Genre Identification</t>
-  </si>
-  <si>
-    <t>Visual ChatGPT: Talking, Drawing and Editing with Visual Foundation Models</t>
-  </si>
-  <si>
-    <t>Check Your Facts and Try Again: Improving Large Language Models with External Knowledge and Automated Feedback</t>
-  </si>
-  <si>
-    <t>ICL-D3IE: In-Context Learning with Diverse Demonstrations Updating for Document Information Extraction</t>
-  </si>
-  <si>
-    <t>Seeing ChatGPT Through Students' Eyes: An Analysis of TikTok Data</t>
-  </si>
-  <si>
-    <t>Complex QA and language models hybrid architectures, Survey</t>
-  </si>
-  <si>
-    <t>Exploring the Feasibility of ChatGPT for Event Extraction</t>
-  </si>
-  <si>
-    <t>Personalisation within bounds: A risk taxonomy and policy framework for the alignment of large language models with personalised feedback</t>
+    <t>ChatGPT cites the most-cited articles and journals, relying solely on Google Scholar's citation counts. As a result, AI may amplify the Matthew Effect in environmental science</t>
+  </si>
+  <si>
+    <t>Sparks of Artificial General Intelligence: Early experiments with GPT-4</t>
+  </si>
+  <si>
+    <t>Geotechnical Parrot Tales (GPT): Harnessing Large Language Models in geotechnical engineering</t>
+  </si>
+  <si>
+    <t>Analyzing ChatGPT's Aptitude in an Introductory Computer Engineering Course</t>
+  </si>
+  <si>
+    <t>ChatGPT: Applications, Opportunities, and Threats</t>
+  </si>
+  <si>
+    <t>OpenAssistant Conversations -- Democratizing Large Language Model Alignment</t>
+  </si>
+  <si>
+    <t>The Self-Perception and Political Biases of ChatGPT</t>
+  </si>
+  <si>
+    <t>AI-assisted Protective Action: Study of ChatGPT as an Information Source for a Population Facing Climate Hazards</t>
+  </si>
+  <si>
+    <t>Self-collaboration Code Generation via ChatGPT</t>
+  </si>
+  <si>
+    <t>Can ChatGPT Forecast Stock Price Movements? Return Predictability and Large Language Models</t>
+  </si>
+  <si>
+    <t>VISAR: A Human-AI Argumentative Writing Assistant with Visual Programming and Rapid Draft Prototyping</t>
+  </si>
+  <si>
+    <t>A Survey of Large Language Models</t>
+  </si>
+  <si>
+    <t>How does ChatGPT rate sound semantics?</t>
+  </si>
+  <si>
+    <t>Advances in apparent conceptual physics reasoning in GPT-4</t>
+  </si>
+  <si>
+    <t>Towards Better Instruction Following Language Models for Chinese: Investigating the Impact of Training Data and Evaluation</t>
+  </si>
+  <si>
+    <t>From Zero to Hero: Examining the Power of Symbolic Tasks in Instruction Tuning</t>
+  </si>
+  <si>
+    <t>Efficient and Effective Text Encoding for Chinese LLaMA and Alpaca</t>
+  </si>
+  <si>
+    <t>A study on Prompt Design, Advantages and Limitations of ChatGPT for Deep Learning Program Repair</t>
+  </si>
+  <si>
+    <t>Large Language Models Can Be Used to Scale the Ideologies of Politicians in a Zero-Shot Learning Setting</t>
+  </si>
+  <si>
+    <t>DoctorGLM: Fine-tuning your Chinese Doctor is not a Herculean Task</t>
+  </si>
+  <si>
+    <t>ImpressionGPT: An Iterative Optimizing Framework for Radiology Report Summarization with ChatGPT</t>
+  </si>
+  <si>
+    <t>ChatGPT Empowered Long-Step Robot Control in Various Environments: A Case Application</t>
+  </si>
+  <si>
+    <t>Chinese Open Instruction Generalist: A Preliminary Release</t>
+  </si>
+  <si>
+    <t>In ChatGPT We Trust? Measuring and Characterizing the Reliability of ChatGPT</t>
+  </si>
+  <si>
+    <t>When do you need Chain-of-Thought Prompting for ChatGPT?</t>
+  </si>
+  <si>
+    <t>The Role of Large Language Models in the Recognition of Territorial Sovereignty: An Analysis of the Construction of Legitimacy</t>
+  </si>
+  <si>
+    <t>Exploring the Trade-Offs: Unified Large Language Models vs Local Fine-Tuned Models for Highly-Specific Radiology NLI Task</t>
+  </si>
+  <si>
+    <t>Towards Designing a ChatGPT Conversational Companion for Elderly People</t>
+  </si>
+  <si>
+    <t>ChatDoctor: A Medical Chat Model Fine-tuned on LLaMA Model using Medical Domain Knowledge</t>
+  </si>
+  <si>
+    <t>Should ChatGPT be Biased? Challenges and Risks of Bias in Large Language Models</t>
+  </si>
+  <si>
+    <t>GPT detectors are biased against non-native English writers</t>
+  </si>
+  <si>
+    <t>The Unintended Consequences of Censoring Digital Technology -- Evidence from Italy's ChatGPT Ban</t>
+  </si>
+  <si>
+    <t>Is ChatGPT Good at Search? Investigating Large Language Models as Re-Ranking Agent</t>
+  </si>
+  <si>
+    <t>Is ChatGPT Equipped with Emotional Dialogue Capabilities?</t>
+  </si>
+  <si>
+    <t>ChatGPT as a Therapist Assistant: A Suitability Study</t>
+  </si>
+  <si>
+    <t>How Secure is Code Generated by ChatGPT?</t>
+  </si>
+  <si>
+    <t>GeneGPT: Teaching Large Language Models to Use NCBI Web APIs</t>
+  </si>
+  <si>
+    <t>Chameleon: Plug-and-Play Compositional Reasoning with Large Language Models</t>
+  </si>
+  <si>
+    <t>MasakhaNEWS: News Topic Classification for African languages</t>
+  </si>
+  <si>
+    <t>Physics task development of prospective physics teachers using ChatGPT</t>
+  </si>
+  <si>
+    <t>ParroT: Translating During Chat Using Large Language Models</t>
+  </si>
+  <si>
+    <t>Can ChatGPT Reproduce Human-Generated Labels? A Study of Social Computing Tasks</t>
+  </si>
+  <si>
+    <t>Is ChatGPT a Good Recommender? A Preliminary Study</t>
+  </si>
+  <si>
+    <t>The Future of ChatGPT-enabled Labor Market: A Preliminary Study</t>
+  </si>
+  <si>
+    <t>Evaluating the Logical Reasoning Ability of ChatGPT and GPT-4</t>
+  </si>
+  <si>
+    <t>CKBP v2: An Expert-Annotated Evaluation Set for Commonsense Knowledge Base Population</t>
+  </si>
+  <si>
+    <t>On the Potential of Artificial Intelligence Chatbots for Data Exploration of Federated Bioinformatics Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>Safety Assessment of Chinese Large Language Models</t>
+  </si>
+  <si>
+    <t>Phoenix: Democratizing ChatGPT across Languages</t>
+  </si>
+  <si>
+    <t>Learning to Program with Natural Language</t>
+  </si>
+  <si>
+    <t>Why Does ChatGPT Fall Short in Answering Questions Faithfully?</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/2212.08104</t>
@@ -454,241 +1063,850 @@
     <t>https://arxiv.org/abs/2301.13382</t>
   </si>
   <si>
+    <t>https://arxiv.org/abs/2301.13867</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.14582</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12038</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.07136</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.12127</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.04818</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.13819</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.06474</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.06466</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.04324</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.04335</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.04536</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.03495</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.03780</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13521</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.07142</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.02094</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.06871</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2212.09408</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.07257</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.07406</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.09068</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.06476</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.07321</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.08081</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.03886</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.10916</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.01255</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.09210</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.09643</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.06426</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.10205</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13795</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.11382</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.10724</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.12867</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13524</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13793</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13214</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.14600</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.05517</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13814</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.11596</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.14520</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.04023</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.00446</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.01194</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13137</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.10198</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13817</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.08819</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.07845</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.03186</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.02891</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.01248</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.03751</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.05383</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.04048</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.05352</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.04226</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13528</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.03953</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.04671</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.07316</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.06219</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.12813</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.05349</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.03836</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.05453</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.08014</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.11158</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.06273</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.06217</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.07839</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.03287</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.07351</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13547</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.06594</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.07529</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.07610</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.07992</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13648</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.07736</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.08896</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.08769</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.06832</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02015</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.10368</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.10420</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.01157</t>
+  </si>
+  <si>
     <t>https://arxiv.org/abs/2301.08745</t>
   </si>
   <si>
-    <t>https://arxiv.org/abs/2301.13867</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2208.14582</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.07136</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2301.12127</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.04818</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2301.13819</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.06474</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.06466</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.04324</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.04335</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.03287</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.04536</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.03495</t>
+    <t>https://arxiv.org/abs/2303.11032</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.13007</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.11146</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.11381</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.11568</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.05382</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.11717</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.11812</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12003</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12132</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.08518</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.09461</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12767</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12910</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13001</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03086</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13780</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13809</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13936</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13989</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2209.14627</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12961</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.14292</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12093</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15473</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.14624</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.05063</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.14701</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.14742</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.01067</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.14822</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.08233</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15056</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15587</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15662</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02468</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15725</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15727</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15772</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16104</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16281</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16352</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16416</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16421</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.09038</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16429</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16434</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16909</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.12095</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16129</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.16870</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17114</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17163</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03287</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17322</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17395</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.09419</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13592</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17628</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17650</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.08176</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17466</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.18116</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13367</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.00228</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01938</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01948</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.09184</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.00385</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.00457</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17580</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.18149</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01002</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2210.13312</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01246</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01333</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.03494</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01446</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01483</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.14524</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.06488</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01196</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17853</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01746</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01771</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01933</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02014</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02182</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02210</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01487</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.18027</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.02337</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02496</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02554</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02697</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02796</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02868</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.14229</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03087</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03325</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03347</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03434</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03516</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03540</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03612</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03784</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2302.09051</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03722</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03892</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01852</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05372</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.04193</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.04256</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.04339</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05351</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2212.14548</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.00723</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.04675</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.04360</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.04920</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05402</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05193</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05197</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05335</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05436</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05454</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05613</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.13856</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05774</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05906</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07232</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.06148</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02017</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.05534</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.06364</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.15621</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.04227</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09161</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.06588</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/2303.02155</t>
   </si>
   <si>
-    <t>https://arxiv.org/abs/2302.03780</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.02337</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.07736</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.07142</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.02094</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.06871</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2212.09408</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.07257</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.07406</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.09068</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.06476</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2210.07321</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.08081</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.03886</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.10916</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.01255</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.09210</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2212.14548</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.09419</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.09643</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.06426</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.10205</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.13795</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.11382</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.10724</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2301.12867</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.13793</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.13214</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.14600</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2301.05517</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.14229</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.13007</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.13814</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2301.11596</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.14520</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.04023</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.00446</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.12095</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.01067</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.01157</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.01194</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.13137</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.10198</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.13817</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.07845</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.03186</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.02891</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.03494</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.05382</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.01248</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.03751</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.05383</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.04048</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.05352</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.04226</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.04360</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.03953</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.04671</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.12813</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.05063</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.05349</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2302.09051</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.03836</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2303.05453</t>
+    <t>https://arxiv.org/abs/2304.06794</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12712</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02138</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.06122</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09103</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07327</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07333</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.06124</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07590</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07619</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07810</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.18223</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07830</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.17012</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07854</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07995</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.08177</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.08191</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.12057</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.01097</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.08448</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03893</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.07987</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.08979</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03262</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.06030</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09138</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09866</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.14070</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03738</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02819</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09339</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09542</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09582</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09873</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09655</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09667</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09842</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09972</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10014</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.02426</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10145</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10149</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.09823</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.03439</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10392</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10427</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10436</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10453</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10464</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2304.10513</t>
   </si>
   <si>
     <t>20221208</t>
@@ -799,9 +2017,6 @@
     <t>20230217</t>
   </si>
   <si>
-    <t>20230218</t>
-  </si>
-  <si>
     <t>20230219</t>
   </si>
   <si>
@@ -841,9 +2056,6 @@
     <t>20230305</t>
   </si>
   <si>
-    <t>20230306</t>
-  </si>
-  <si>
     <t>20230307</t>
   </si>
   <si>
@@ -853,6 +2065,129 @@
     <t>20230309</t>
   </si>
   <si>
+    <t>20230310</t>
+  </si>
+  <si>
+    <t>20230311</t>
+  </si>
+  <si>
+    <t>20230312</t>
+  </si>
+  <si>
+    <t>20230313</t>
+  </si>
+  <si>
+    <t>20230314</t>
+  </si>
+  <si>
+    <t>20230315</t>
+  </si>
+  <si>
+    <t>20230316</t>
+  </si>
+  <si>
+    <t>20230318</t>
+  </si>
+  <si>
+    <t>20230319</t>
+  </si>
+  <si>
+    <t>20230320</t>
+  </si>
+  <si>
+    <t>20230321</t>
+  </si>
+  <si>
+    <t>20230322</t>
+  </si>
+  <si>
+    <t>20230323</t>
+  </si>
+  <si>
+    <t>20230324</t>
+  </si>
+  <si>
+    <t>20230325</t>
+  </si>
+  <si>
+    <t>20230326</t>
+  </si>
+  <si>
+    <t>20230327</t>
+  </si>
+  <si>
+    <t>20230328</t>
+  </si>
+  <si>
+    <t>20230329</t>
+  </si>
+  <si>
+    <t>20230330</t>
+  </si>
+  <si>
+    <t>20230331</t>
+  </si>
+  <si>
+    <t>20230401</t>
+  </si>
+  <si>
+    <t>20230402</t>
+  </si>
+  <si>
+    <t>20230403</t>
+  </si>
+  <si>
+    <t>20230404</t>
+  </si>
+  <si>
+    <t>20230405</t>
+  </si>
+  <si>
+    <t>20230406</t>
+  </si>
+  <si>
+    <t>20230407</t>
+  </si>
+  <si>
+    <t>20230408</t>
+  </si>
+  <si>
+    <t>20230409</t>
+  </si>
+  <si>
+    <t>20230410</t>
+  </si>
+  <si>
+    <t>20230411</t>
+  </si>
+  <si>
+    <t>20230412</t>
+  </si>
+  <si>
+    <t>20230413</t>
+  </si>
+  <si>
+    <t>20230414</t>
+  </si>
+  <si>
+    <t>20230415</t>
+  </si>
+  <si>
+    <t>20230416</t>
+  </si>
+  <si>
+    <t>20230417</t>
+  </si>
+  <si>
+    <t>20230418</t>
+  </si>
+  <si>
+    <t>20230419</t>
+  </si>
+  <si>
+    <t>20230420</t>
+  </si>
+  <si>
     <t>Computation and Language</t>
   </si>
   <si>
@@ -895,13 +2230,46 @@
     <t>History and Overview</t>
   </si>
   <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>Other Quantitative Biology</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
     <t>General Economics</t>
   </si>
   <si>
-    <t>Robotics</t>
-  </si>
-  <si>
-    <t>Applications</t>
+    <t>Networking and Internet Architecture</t>
+  </si>
+  <si>
+    <t>Physics and Society</t>
+  </si>
+  <si>
+    <t>Digital Libraries</t>
+  </si>
+  <si>
+    <t>Audio and Speech Processing</t>
+  </si>
+  <si>
+    <t>High Energy Astrophysical Phenomena</t>
+  </si>
+  <si>
+    <t>Medical Physics</t>
+  </si>
+  <si>
+    <t>Social and Information Networks</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>Statistical Finance</t>
   </si>
   <si>
     <t>Artificial Intelligence;Computers and Society;</t>
@@ -955,40 +2323,154 @@
     <t>Computers and Society;Human-Computer Interaction;</t>
   </si>
   <si>
+    <t>Artificial Intelligence;Human-Computer Interaction;</t>
+  </si>
+  <si>
+    <t>Image and Video Processing;</t>
+  </si>
+  <si>
+    <t>Computation and Language;Computer Vision and Pattern Recognition;</t>
+  </si>
+  <si>
+    <t>Cryptography and Security;Computers and Society;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Probability;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Computers and Society;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Software Engineering;</t>
+  </si>
+  <si>
+    <t>Computers and Society;Social and Information Networks;</t>
+  </si>
+  <si>
+    <t>Computational Complexity;Data Structures and Algorithms;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Performance;</t>
+  </si>
+  <si>
+    <t>Materials Science;</t>
+  </si>
+  <si>
+    <t>Computation and Language;Computers and Society;</t>
+  </si>
+  <si>
+    <t>General Economics;</t>
+  </si>
+  <si>
+    <t>Computer Vision and Pattern Recognition;Machine Learning;Multimedia;</t>
+  </si>
+  <si>
+    <t>Cryptography and Security;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Hardware Architecture;Emerging Technologies;</t>
+  </si>
+  <si>
+    <t>Software Engineering;Numerical Analysis;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Systems and Control;</t>
+  </si>
+  <si>
+    <t>Human-Computer Interaction;Networking and Internet Architecture;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Computation and Language;Machine Learning;Social and Information Networks;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Medical Physics;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Physics Education;</t>
+  </si>
+  <si>
+    <t>Computation and Language;Information Retrieval;</t>
+  </si>
+  <si>
+    <t>Computation and Language;Multimedia;Sound;</t>
+  </si>
+  <si>
+    <t>Instrumentation and Methods for Astrophysics;General Relativity and Quantum Cosmology;Popular Physics;</t>
+  </si>
+  <si>
+    <t>Computation;</t>
+  </si>
+  <si>
+    <t>Computation and Language;Physics Education;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Digital Libraries;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Graphics;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Computer Vision and Pattern Recognition;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Computers and Society;Software Engineering;</t>
+  </si>
+  <si>
+    <t>Number Theory;</t>
+  </si>
+  <si>
+    <t>Digital Libraries;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Computation and Language;Computer Vision and Pattern Recognition;Machine Learning;</t>
+  </si>
+  <si>
+    <t>High Energy Astrophysical Phenomena;Computation and Language;</t>
+  </si>
+  <si>
+    <t>Information Retrieval;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Information Retrieval;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Machine Learning;Statistical Finance;</t>
+  </si>
+  <si>
+    <t>Cryptography and Security;Machine Learning;Multimedia;</t>
+  </si>
+  <si>
+    <t>Cryptography and Security;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Software Engineering;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Social and Information Networks;</t>
+  </si>
+  <si>
     <t>Human-Computer Interaction;Machine Learning;Neural and Evolutionary Computing;</t>
   </si>
   <si>
-    <t>Image and Video Processing;</t>
-  </si>
-  <si>
-    <t>Computation and Language;Computer Vision and Pattern Recognition;</t>
-  </si>
-  <si>
-    <t>Cryptography and Security;Computers and Society;Machine Learning;</t>
-  </si>
-  <si>
-    <t>Probability;</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence;Computers and Society;Machine Learning;</t>
-  </si>
-  <si>
-    <t>Software Engineering;</t>
-  </si>
-  <si>
-    <t>Computational Complexity;Data Structures and Algorithms;Machine Learning;</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence;Performance;</t>
-  </si>
-  <si>
-    <t>Materials Science;</t>
-  </si>
-  <si>
-    <t>Computation and Language;Computers and Society;</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence;Information Retrieval;Machine Learning;</t>
+    <t>Geophysics;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Computation and Language;Human-Computer Interaction;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Computation and Language;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Sound;Audio and Speech Processing;</t>
+  </si>
+  <si>
+    <t>Human-Computer Interaction;Machine Learning;</t>
+  </si>
+  <si>
+    <t>Information Retrieval;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence;Genomics;</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +2841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,16 +2869,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>631</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1404,13 +2886,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>632</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1418,16 +2900,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>633</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1435,16 +2917,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>634</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1452,16 +2934,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>635</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>725</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1469,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>636</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1483,13 +2965,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>636</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1497,13 +2979,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>637</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1511,16 +2993,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>637</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>727</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1528,13 +3010,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>638</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1542,16 +3024,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>638</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>728</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1559,16 +3041,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>639</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1576,16 +3058,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>127</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>640</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>725</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1593,16 +3075,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>641</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>728</v>
       </c>
       <c r="E15" t="s">
-        <v>303</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1610,16 +3092,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>642</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>725</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1627,16 +3109,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>643</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E17" t="s">
-        <v>305</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1644,16 +3126,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>643</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E18" t="s">
-        <v>302</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1661,16 +3143,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>644</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>727</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1678,16 +3160,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>645</v>
       </c>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>729</v>
       </c>
       <c r="E20" t="s">
-        <v>301</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1695,16 +3177,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>646</v>
       </c>
       <c r="D21" t="s">
-        <v>283</v>
+        <v>728</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1712,16 +3194,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>647</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>730</v>
       </c>
       <c r="E22" t="s">
-        <v>307</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1729,13 +3211,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>648</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1743,13 +3225,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>649</v>
       </c>
       <c r="D24" t="s">
-        <v>286</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1757,16 +3239,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>650</v>
       </c>
       <c r="D25" t="s">
-        <v>285</v>
+        <v>730</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1774,13 +3256,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>651</v>
       </c>
       <c r="D26" t="s">
-        <v>287</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1788,16 +3270,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>652</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>732</v>
       </c>
       <c r="E27" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1805,16 +3287,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>652</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>730</v>
       </c>
       <c r="E28" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1822,16 +3304,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>653</v>
       </c>
       <c r="D29" t="s">
-        <v>286</v>
+        <v>731</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1839,16 +3321,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>654</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1856,16 +3338,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>654</v>
       </c>
       <c r="D31" t="s">
-        <v>286</v>
+        <v>731</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1873,13 +3355,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>145</v>
+        <v>348</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>654</v>
       </c>
       <c r="D32" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1887,13 +3369,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>655</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>728</v>
+      </c>
+      <c r="E33" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1901,16 +3386,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>147</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>655</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>728</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>752</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1918,16 +3403,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>655</v>
       </c>
       <c r="D35" t="s">
-        <v>283</v>
+        <v>724</v>
       </c>
       <c r="E35" t="s">
-        <v>296</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1935,16 +3420,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>656</v>
       </c>
       <c r="D36" t="s">
-        <v>285</v>
+        <v>730</v>
       </c>
       <c r="E36" t="s">
-        <v>304</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1952,13 +3437,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>656</v>
       </c>
       <c r="D37" t="s">
-        <v>281</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1966,16 +3451,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>657</v>
       </c>
       <c r="D38" t="s">
-        <v>285</v>
+        <v>730</v>
       </c>
       <c r="E38" t="s">
-        <v>310</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1983,16 +3468,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>658</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E39" t="s">
-        <v>302</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2000,13 +3485,13 @@
         <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>356</v>
       </c>
       <c r="C40" t="s">
-        <v>252</v>
+        <v>658</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2014,16 +3499,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E41" t="s">
-        <v>297</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2031,16 +3516,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>358</v>
       </c>
       <c r="C42" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>733</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2048,13 +3533,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>156</v>
+        <v>359</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>659</v>
       </c>
       <c r="D43" t="s">
-        <v>280</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2062,16 +3547,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>157</v>
+        <v>360</v>
       </c>
       <c r="C44" t="s">
-        <v>253</v>
+        <v>660</v>
       </c>
       <c r="D44" t="s">
-        <v>286</v>
+        <v>725</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2079,16 +3564,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>158</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>660</v>
       </c>
       <c r="D45" t="s">
-        <v>280</v>
+        <v>734</v>
       </c>
       <c r="E45" t="s">
-        <v>312</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2096,16 +3581,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>159</v>
+        <v>362</v>
       </c>
       <c r="C46" t="s">
-        <v>254</v>
+        <v>660</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>724</v>
       </c>
       <c r="E46" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2113,16 +3598,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>661</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>727</v>
       </c>
       <c r="E47" t="s">
-        <v>313</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2130,16 +3615,13 @@
         <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>161</v>
+        <v>364</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>662</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" t="s">
-        <v>298</v>
+        <v>735</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2147,16 +3629,13 @@
         <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>162</v>
+        <v>365</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>662</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
-      </c>
-      <c r="E49" t="s">
-        <v>298</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2164,16 +3643,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>366</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>663</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>730</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2181,13 +3660,13 @@
         <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>663</v>
       </c>
       <c r="D51" t="s">
-        <v>290</v>
+        <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2195,13 +3674,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>663</v>
       </c>
       <c r="D52" t="s">
-        <v>287</v>
+        <v>736</v>
+      </c>
+      <c r="E52" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2209,16 +3691,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>663</v>
       </c>
       <c r="D53" t="s">
-        <v>285</v>
+        <v>732</v>
       </c>
       <c r="E53" t="s">
-        <v>310</v>
+        <v>754</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2226,13 +3708,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s">
-        <v>257</v>
+        <v>664</v>
       </c>
       <c r="D54" t="s">
-        <v>291</v>
+        <v>725</v>
+      </c>
+      <c r="E54" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2240,16 +3725,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>257</v>
+        <v>664</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>724</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2257,16 +3742,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="C56" t="s">
-        <v>257</v>
+        <v>664</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>724</v>
       </c>
       <c r="E56" t="s">
-        <v>298</v>
+        <v>772</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2274,16 +3759,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s">
-        <v>258</v>
+        <v>664</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>724</v>
       </c>
       <c r="E57" t="s">
-        <v>315</v>
+        <v>754</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2291,16 +3776,13 @@
         <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>171</v>
+        <v>374</v>
       </c>
       <c r="C58" t="s">
-        <v>258</v>
+        <v>665</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" t="s">
-        <v>298</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2308,16 +3790,13 @@
         <v>62</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>666</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" t="s">
-        <v>316</v>
+        <v>728</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2325,16 +3804,13 @@
         <v>63</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
-        <v>258</v>
+        <v>666</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
-      </c>
-      <c r="E60" t="s">
-        <v>298</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2342,13 +3818,13 @@
         <v>64</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="C61" t="s">
-        <v>259</v>
+        <v>666</v>
       </c>
       <c r="D61" t="s">
-        <v>285</v>
+        <v>724</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2356,13 +3832,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>667</v>
       </c>
       <c r="D62" t="s">
-        <v>283</v>
+        <v>737</v>
+      </c>
+      <c r="E62" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2370,13 +3849,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>668</v>
       </c>
       <c r="D63" t="s">
-        <v>291</v>
+        <v>724</v>
+      </c>
+      <c r="E63" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2384,13 +3866,13 @@
         <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>177</v>
+        <v>380</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>668</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2398,13 +3880,13 @@
         <v>68</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>668</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2412,16 +3894,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>179</v>
+        <v>382</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>669</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>731</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2429,16 +3911,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>180</v>
+        <v>383</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>669</v>
       </c>
       <c r="D67" t="s">
-        <v>292</v>
+        <v>724</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2446,16 +3928,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>181</v>
+        <v>384</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>670</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E68" t="s">
-        <v>298</v>
+        <v>775</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2463,13 +3945,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>182</v>
+        <v>385</v>
       </c>
       <c r="C69" t="s">
-        <v>263</v>
+        <v>671</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
+        <v>732</v>
+      </c>
+      <c r="E69" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2477,13 +3962,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>183</v>
+        <v>386</v>
       </c>
       <c r="C70" t="s">
-        <v>263</v>
+        <v>671</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>724</v>
+      </c>
+      <c r="E70" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2491,16 +3979,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="C71" t="s">
-        <v>264</v>
+        <v>672</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>728</v>
       </c>
       <c r="E71" t="s">
-        <v>298</v>
+        <v>777</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2508,16 +3996,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>185</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>673</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>731</v>
       </c>
       <c r="E72" t="s">
-        <v>318</v>
+        <v>754</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2525,16 +4013,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>674</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>731</v>
       </c>
       <c r="E73" t="s">
-        <v>319</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2542,16 +4030,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>674</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E74" t="s">
-        <v>297</v>
+        <v>764</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2559,16 +4047,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>188</v>
+        <v>391</v>
       </c>
       <c r="C75" t="s">
-        <v>267</v>
+        <v>675</v>
       </c>
       <c r="D75" t="s">
-        <v>283</v>
+        <v>724</v>
       </c>
       <c r="E75" t="s">
-        <v>320</v>
+        <v>754</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2576,16 +4064,13 @@
         <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>189</v>
+        <v>392</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>675</v>
       </c>
       <c r="D76" t="s">
-        <v>286</v>
-      </c>
-      <c r="E76" t="s">
-        <v>298</v>
+        <v>724</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2593,16 +4078,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>675</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
+        <v>724</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2610,16 +4095,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>191</v>
+        <v>394</v>
       </c>
       <c r="C78" t="s">
-        <v>269</v>
+        <v>676</v>
       </c>
       <c r="D78" t="s">
-        <v>279</v>
-      </c>
-      <c r="E78" t="s">
-        <v>298</v>
+        <v>725</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2627,16 +4109,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>192</v>
+        <v>395</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>677</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E79" t="s">
-        <v>308</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2644,16 +4126,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>677</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>738</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2661,16 +4143,13 @@
         <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>194</v>
+        <v>397</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>677</v>
       </c>
       <c r="D81" t="s">
-        <v>279</v>
-      </c>
-      <c r="E81" t="s">
-        <v>298</v>
+        <v>724</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2678,13 +4157,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>195</v>
+        <v>398</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>677</v>
       </c>
       <c r="D82" t="s">
-        <v>279</v>
+        <v>724</v>
+      </c>
+      <c r="E82" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2692,16 +4174,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>196</v>
+        <v>399</v>
       </c>
       <c r="C83" t="s">
-        <v>270</v>
+        <v>677</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>732</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2709,13 +4191,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
+        <v>677</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>724</v>
+      </c>
+      <c r="E84" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2723,16 +4208,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>198</v>
+        <v>401</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>678</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>724</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
+        <v>754</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2740,16 +4225,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>679</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>730</v>
       </c>
       <c r="E86" t="s">
-        <v>298</v>
+        <v>764</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2757,13 +4242,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="C87" t="s">
-        <v>272</v>
+        <v>680</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>724</v>
+      </c>
+      <c r="E87" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2771,16 +4259,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>201</v>
+        <v>404</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>680</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>728</v>
       </c>
       <c r="E88" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2788,16 +4276,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>202</v>
+        <v>405</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>680</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>724</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2805,13 +4293,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="C90" t="s">
-        <v>272</v>
+        <v>680</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>724</v>
+      </c>
+      <c r="E90" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2819,16 +4310,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>204</v>
+        <v>407</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>680</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E91" t="s">
-        <v>298</v>
+        <v>779</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2836,16 +4327,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>205</v>
+        <v>408</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>680</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>725</v>
       </c>
       <c r="E92" t="s">
-        <v>321</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2853,16 +4344,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>206</v>
+        <v>409</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>680</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>739</v>
       </c>
       <c r="E93" t="s">
-        <v>298</v>
+        <v>761</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2870,16 +4361,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>207</v>
+        <v>410</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>681</v>
       </c>
       <c r="D94" t="s">
-        <v>285</v>
+        <v>724</v>
       </c>
       <c r="E94" t="s">
-        <v>308</v>
+        <v>758</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2887,16 +4378,13 @@
         <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>208</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
-        <v>275</v>
+        <v>681</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
-      </c>
-      <c r="E95" t="s">
-        <v>308</v>
+        <v>736</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2904,16 +4392,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>209</v>
+        <v>412</v>
       </c>
       <c r="C96" t="s">
-        <v>275</v>
+        <v>681</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E96" t="s">
-        <v>308</v>
+        <v>754</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2921,16 +4409,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>210</v>
+        <v>413</v>
       </c>
       <c r="C97" t="s">
-        <v>276</v>
+        <v>681</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>730</v>
       </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2938,16 +4426,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>211</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>681</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>724</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2955,16 +4443,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>212</v>
+        <v>415</v>
       </c>
       <c r="C99" t="s">
-        <v>276</v>
+        <v>682</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>740</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>780</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2972,16 +4460,13 @@
         <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>213</v>
+        <v>416</v>
       </c>
       <c r="C100" t="s">
-        <v>276</v>
+        <v>682</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
-      </c>
-      <c r="E100" t="s">
-        <v>298</v>
+        <v>724</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2989,16 +4474,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
       <c r="C101" t="s">
-        <v>276</v>
+        <v>682</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E101" t="s">
-        <v>322</v>
+        <v>761</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3006,16 +4491,13 @@
         <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>683</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
-      </c>
-      <c r="E102" t="s">
-        <v>300</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3023,16 +4505,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>683</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>734</v>
       </c>
       <c r="E103" t="s">
-        <v>308</v>
+        <v>755</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3040,16 +4522,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>217</v>
+        <v>420</v>
       </c>
       <c r="C104" t="s">
-        <v>277</v>
+        <v>683</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E104" t="s">
-        <v>302</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3057,13 +4539,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
+        <v>421</v>
       </c>
       <c r="C105" t="s">
-        <v>277</v>
+        <v>684</v>
       </c>
       <c r="D105" t="s">
-        <v>291</v>
+        <v>730</v>
+      </c>
+      <c r="E105" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3071,16 +4556,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>684</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>731</v>
       </c>
       <c r="E106" t="s">
-        <v>298</v>
+        <v>754</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3088,13 +4573,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="C107" t="s">
-        <v>278</v>
+        <v>684</v>
       </c>
       <c r="D107" t="s">
-        <v>279</v>
+        <v>731</v>
+      </c>
+      <c r="E107" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3102,16 +4590,13 @@
         <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>221</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>684</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
-      </c>
-      <c r="E108" t="s">
-        <v>323</v>
+        <v>741</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3119,16 +4604,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="C109" t="s">
-        <v>278</v>
+        <v>684</v>
       </c>
       <c r="D109" t="s">
-        <v>279</v>
+        <v>724</v>
       </c>
       <c r="E109" t="s">
-        <v>324</v>
+        <v>754</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3136,13 +4621,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>223</v>
+        <v>426</v>
       </c>
       <c r="C110" t="s">
-        <v>278</v>
+        <v>685</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>736</v>
+      </c>
+      <c r="E110" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3150,16 +4638,3233 @@
         <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C111" t="s">
+        <v>686</v>
+      </c>
+      <c r="D111" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112" t="s">
+        <v>686</v>
+      </c>
+      <c r="D112" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C113" t="s">
+        <v>687</v>
+      </c>
+      <c r="D113" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C114" t="s">
+        <v>687</v>
+      </c>
+      <c r="D114" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C115" t="s">
+        <v>688</v>
+      </c>
+      <c r="D115" t="s">
+        <v>724</v>
+      </c>
+      <c r="E115" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C116" t="s">
+        <v>688</v>
+      </c>
+      <c r="D116" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C117" t="s">
+        <v>688</v>
+      </c>
+      <c r="D117" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" t="s">
+        <v>689</v>
+      </c>
+      <c r="D118" t="s">
+        <v>728</v>
+      </c>
+      <c r="E118" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C119" t="s">
+        <v>689</v>
+      </c>
+      <c r="D119" t="s">
+        <v>724</v>
+      </c>
+      <c r="E119" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C120" t="s">
+        <v>690</v>
+      </c>
+      <c r="D120" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C121" t="s">
+        <v>690</v>
+      </c>
+      <c r="D121" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C122" t="s">
+        <v>690</v>
+      </c>
+      <c r="D122" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C123" t="s">
+        <v>691</v>
+      </c>
+      <c r="D123" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C124" t="s">
+        <v>692</v>
+      </c>
+      <c r="D124" t="s">
+        <v>724</v>
+      </c>
+      <c r="E124" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C125" t="s">
+        <v>692</v>
+      </c>
+      <c r="D125" t="s">
+        <v>724</v>
+      </c>
+      <c r="E125" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C126" t="s">
+        <v>692</v>
+      </c>
+      <c r="D126" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C127" t="s">
+        <v>692</v>
+      </c>
+      <c r="D127" t="s">
+        <v>736</v>
+      </c>
+      <c r="E127" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C128" t="s">
+        <v>692</v>
+      </c>
+      <c r="D128" t="s">
+        <v>725</v>
+      </c>
+      <c r="E128" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C129" t="s">
+        <v>693</v>
+      </c>
+      <c r="D129" t="s">
+        <v>724</v>
+      </c>
+      <c r="E129" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C130" t="s">
+        <v>693</v>
+      </c>
+      <c r="D130" t="s">
+        <v>725</v>
+      </c>
+      <c r="E130" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" t="s">
+        <v>693</v>
+      </c>
+      <c r="D131" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C132" t="s">
+        <v>693</v>
+      </c>
+      <c r="D132" t="s">
+        <v>725</v>
+      </c>
+      <c r="E132" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C133" t="s">
+        <v>693</v>
+      </c>
+      <c r="D133" t="s">
+        <v>724</v>
+      </c>
+      <c r="E133" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C134" t="s">
+        <v>694</v>
+      </c>
+      <c r="D134" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C135" t="s">
+        <v>694</v>
+      </c>
+      <c r="D135" t="s">
+        <v>724</v>
+      </c>
+      <c r="E135" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C136" t="s">
+        <v>694</v>
+      </c>
+      <c r="D136" t="s">
+        <v>724</v>
+      </c>
+      <c r="E136" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C137" t="s">
+        <v>694</v>
+      </c>
+      <c r="D137" t="s">
+        <v>728</v>
+      </c>
+      <c r="E137" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C138" t="s">
+        <v>694</v>
+      </c>
+      <c r="D138" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C139" t="s">
+        <v>695</v>
+      </c>
+      <c r="D139" t="s">
+        <v>724</v>
+      </c>
+      <c r="E139" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C140" t="s">
+        <v>695</v>
+      </c>
+      <c r="D140" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C141" t="s">
+        <v>696</v>
+      </c>
+      <c r="D141" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C142" t="s">
+        <v>696</v>
+      </c>
+      <c r="D142" t="s">
+        <v>731</v>
+      </c>
+      <c r="E142" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" t="s">
+        <v>696</v>
+      </c>
+      <c r="D143" t="s">
+        <v>724</v>
+      </c>
+      <c r="E143" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C144" t="s">
+        <v>696</v>
+      </c>
+      <c r="D144" t="s">
+        <v>724</v>
+      </c>
+      <c r="E144" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C145" t="s">
+        <v>696</v>
+      </c>
+      <c r="D145" t="s">
+        <v>728</v>
+      </c>
+      <c r="E145" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C146" t="s">
+        <v>696</v>
+      </c>
+      <c r="D146" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C147" t="s">
+        <v>696</v>
+      </c>
+      <c r="D147" t="s">
+        <v>728</v>
+      </c>
+      <c r="E147" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C148" t="s">
+        <v>697</v>
+      </c>
+      <c r="D148" t="s">
+        <v>732</v>
+      </c>
+      <c r="E148" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C149" t="s">
+        <v>698</v>
+      </c>
+      <c r="D149" t="s">
+        <v>725</v>
+      </c>
+      <c r="E149" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C150" t="s">
+        <v>698</v>
+      </c>
+      <c r="D150" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C151" t="s">
+        <v>698</v>
+      </c>
+      <c r="D151" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C152" t="s">
+        <v>698</v>
+      </c>
+      <c r="D152" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C153" t="s">
+        <v>698</v>
+      </c>
+      <c r="D153" t="s">
+        <v>726</v>
+      </c>
+      <c r="E153" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C154" t="s">
+        <v>698</v>
+      </c>
+      <c r="D154" t="s">
+        <v>727</v>
+      </c>
+      <c r="E154" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C155" t="s">
+        <v>698</v>
+      </c>
+      <c r="D155" t="s">
+        <v>724</v>
+      </c>
+      <c r="E155" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C156" t="s">
+        <v>699</v>
+      </c>
+      <c r="D156" t="s">
+        <v>724</v>
+      </c>
+      <c r="E156" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C157" t="s">
+        <v>699</v>
+      </c>
+      <c r="D157" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C158" t="s">
+        <v>699</v>
+      </c>
+      <c r="D158" t="s">
+        <v>725</v>
+      </c>
+      <c r="E158" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C159" t="s">
+        <v>699</v>
+      </c>
+      <c r="D159" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C160" t="s">
+        <v>700</v>
+      </c>
+      <c r="D160" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>700</v>
+      </c>
+      <c r="D161" t="s">
+        <v>724</v>
+      </c>
+      <c r="E161" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C162" t="s">
+        <v>700</v>
+      </c>
+      <c r="D162" t="s">
+        <v>728</v>
+      </c>
+      <c r="E162" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C163" t="s">
+        <v>700</v>
+      </c>
+      <c r="D163" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C164" t="s">
+        <v>700</v>
+      </c>
+      <c r="D164" t="s">
+        <v>730</v>
+      </c>
+      <c r="E164" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C165" t="s">
+        <v>700</v>
+      </c>
+      <c r="D165" t="s">
+        <v>728</v>
+      </c>
+      <c r="E165" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C166" t="s">
+        <v>700</v>
+      </c>
+      <c r="D166" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C167" t="s">
+        <v>700</v>
+      </c>
+      <c r="D167" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C168" t="s">
+        <v>700</v>
+      </c>
+      <c r="D168" t="s">
+        <v>724</v>
+      </c>
+      <c r="E168" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C169" t="s">
+        <v>700</v>
+      </c>
+      <c r="D169" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C170" t="s">
+        <v>700</v>
+      </c>
+      <c r="D170" t="s">
+        <v>725</v>
+      </c>
+      <c r="E170" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C171" t="s">
+        <v>701</v>
+      </c>
+      <c r="D171" t="s">
+        <v>741</v>
+      </c>
+      <c r="E171" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C172" t="s">
+        <v>701</v>
+      </c>
+      <c r="D172" t="s">
+        <v>725</v>
+      </c>
+      <c r="E172" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C173" t="s">
+        <v>701</v>
+      </c>
+      <c r="D173" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C174" t="s">
+        <v>701</v>
+      </c>
+      <c r="D174" t="s">
+        <v>744</v>
+      </c>
+      <c r="E174" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C175" t="s">
+        <v>701</v>
+      </c>
+      <c r="D175" t="s">
+        <v>743</v>
+      </c>
+      <c r="E175" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C176" t="s">
+        <v>702</v>
+      </c>
+      <c r="D176" t="s">
+        <v>737</v>
+      </c>
+      <c r="E176" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C177" t="s">
+        <v>702</v>
+      </c>
+      <c r="D177" t="s">
+        <v>725</v>
+      </c>
+      <c r="E177" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C178" t="s">
+        <v>702</v>
+      </c>
+      <c r="D178" t="s">
+        <v>745</v>
+      </c>
+      <c r="E178" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C179" t="s">
+        <v>702</v>
+      </c>
+      <c r="D179" t="s">
+        <v>746</v>
+      </c>
+      <c r="E179" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C180" t="s">
+        <v>702</v>
+      </c>
+      <c r="D180" t="s">
+        <v>725</v>
+      </c>
+      <c r="E180" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C181" t="s">
+        <v>702</v>
+      </c>
+      <c r="D181" t="s">
+        <v>724</v>
+      </c>
+      <c r="E181" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C182" t="s">
+        <v>702</v>
+      </c>
+      <c r="D182" t="s">
+        <v>747</v>
+      </c>
+      <c r="E182" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C183" t="s">
+        <v>702</v>
+      </c>
+      <c r="D183" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C184" t="s">
+        <v>702</v>
+      </c>
+      <c r="D184" t="s">
+        <v>730</v>
+      </c>
+      <c r="E184" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C185" t="s">
+        <v>703</v>
+      </c>
+      <c r="D185" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C186" t="s">
+        <v>703</v>
+      </c>
+      <c r="D186" t="s">
+        <v>724</v>
+      </c>
+      <c r="E186" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C187" t="s">
+        <v>703</v>
+      </c>
+      <c r="D187" t="s">
+        <v>724</v>
+      </c>
+      <c r="E187" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C188" t="s">
+        <v>704</v>
+      </c>
+      <c r="D188" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C189" t="s">
+        <v>704</v>
+      </c>
+      <c r="D189" t="s">
+        <v>748</v>
+      </c>
+      <c r="E189" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C190" t="s">
+        <v>704</v>
+      </c>
+      <c r="D190" t="s">
+        <v>749</v>
+      </c>
+      <c r="E190" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C191" t="s">
+        <v>704</v>
+      </c>
+      <c r="D191" t="s">
+        <v>724</v>
+      </c>
+      <c r="E191" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C192" t="s">
+        <v>704</v>
+      </c>
+      <c r="D192" t="s">
+        <v>731</v>
+      </c>
+      <c r="E192" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" t="s">
+        <v>705</v>
+      </c>
+      <c r="D193" t="s">
+        <v>724</v>
+      </c>
+      <c r="E193" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C194" t="s">
+        <v>705</v>
+      </c>
+      <c r="D194" t="s">
+        <v>724</v>
+      </c>
+      <c r="E194" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C195" t="s">
+        <v>705</v>
+      </c>
+      <c r="D195" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C196" t="s">
+        <v>706</v>
+      </c>
+      <c r="D196" t="s">
+        <v>724</v>
+      </c>
+      <c r="E196" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C197" t="s">
+        <v>706</v>
+      </c>
+      <c r="D197" t="s">
+        <v>724</v>
+      </c>
+      <c r="E197" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C198" t="s">
+        <v>706</v>
+      </c>
+      <c r="D198" t="s">
+        <v>724</v>
+      </c>
+      <c r="E198" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C199" t="s">
+        <v>706</v>
+      </c>
+      <c r="D199" t="s">
+        <v>728</v>
+      </c>
+      <c r="E199" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C200" t="s">
+        <v>706</v>
+      </c>
+      <c r="D200" t="s">
+        <v>724</v>
+      </c>
+      <c r="E200" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C201" t="s">
+        <v>706</v>
+      </c>
+      <c r="D201" t="s">
+        <v>734</v>
+      </c>
+      <c r="E201" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C202" t="s">
+        <v>706</v>
+      </c>
+      <c r="D202" t="s">
+        <v>724</v>
+      </c>
+      <c r="E202" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C203" t="s">
+        <v>706</v>
+      </c>
+      <c r="D203" t="s">
+        <v>734</v>
+      </c>
+      <c r="E203" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C204" t="s">
+        <v>707</v>
+      </c>
+      <c r="D204" t="s">
+        <v>730</v>
+      </c>
+      <c r="E204" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C205" t="s">
+        <v>707</v>
+      </c>
+      <c r="D205" t="s">
+        <v>724</v>
+      </c>
+      <c r="E205" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C206" t="s">
+        <v>707</v>
+      </c>
+      <c r="D206" t="s">
+        <v>729</v>
+      </c>
+      <c r="E206" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C207" t="s">
+        <v>707</v>
+      </c>
+      <c r="D207" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C208" t="s">
+        <v>707</v>
+      </c>
+      <c r="D208" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C209" t="s">
+        <v>707</v>
+      </c>
+      <c r="D209" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C210" t="s">
+        <v>707</v>
+      </c>
+      <c r="D210" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C211" t="s">
+        <v>707</v>
+      </c>
+      <c r="D211" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C212" t="s">
+        <v>707</v>
+      </c>
+      <c r="D212" t="s">
+        <v>724</v>
+      </c>
+      <c r="E212" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C213" t="s">
+        <v>708</v>
+      </c>
+      <c r="D213" t="s">
+        <v>728</v>
+      </c>
+      <c r="E213" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C214" t="s">
+        <v>708</v>
+      </c>
+      <c r="D214" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C215" t="s">
+        <v>708</v>
+      </c>
+      <c r="D215" t="s">
+        <v>730</v>
+      </c>
+      <c r="E215" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C216" t="s">
+        <v>708</v>
+      </c>
+      <c r="D216" t="s">
+        <v>724</v>
+      </c>
+      <c r="E216" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C217" t="s">
+        <v>708</v>
+      </c>
+      <c r="D217" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C218" t="s">
+        <v>708</v>
+      </c>
+      <c r="D218" t="s">
+        <v>750</v>
+      </c>
+      <c r="E218" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C219" t="s">
+        <v>708</v>
+      </c>
+      <c r="D219" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C220" t="s">
+        <v>709</v>
+      </c>
+      <c r="D220" t="s">
+        <v>724</v>
+      </c>
+      <c r="E220" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
         <v>224</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B221" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C221" t="s">
+        <v>709</v>
+      </c>
+      <c r="D221" t="s">
+        <v>724</v>
+      </c>
+      <c r="E221" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C222" t="s">
+        <v>709</v>
+      </c>
+      <c r="D222" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C223" t="s">
+        <v>709</v>
+      </c>
+      <c r="D223" t="s">
+        <v>724</v>
+      </c>
+      <c r="E223" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C224" t="s">
+        <v>709</v>
+      </c>
+      <c r="D224" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C225" t="s">
+        <v>709</v>
+      </c>
+      <c r="D225" t="s">
+        <v>749</v>
+      </c>
+      <c r="E225" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C226" t="s">
+        <v>710</v>
+      </c>
+      <c r="D226" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C227" t="s">
+        <v>710</v>
+      </c>
+      <c r="D227" t="s">
+        <v>741</v>
+      </c>
+      <c r="E227" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C228" t="s">
+        <v>710</v>
+      </c>
+      <c r="D228" t="s">
+        <v>724</v>
+      </c>
+      <c r="E228" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C229" t="s">
+        <v>710</v>
+      </c>
+      <c r="D229" t="s">
+        <v>736</v>
+      </c>
+      <c r="E229" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C230" t="s">
+        <v>710</v>
+      </c>
+      <c r="D230" t="s">
+        <v>724</v>
+      </c>
+      <c r="E230" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C231" t="s">
+        <v>710</v>
+      </c>
+      <c r="D231" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C232" t="s">
+        <v>710</v>
+      </c>
+      <c r="D232" t="s">
+        <v>725</v>
+      </c>
+      <c r="E232" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C233" t="s">
+        <v>711</v>
+      </c>
+      <c r="D233" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C234" t="s">
+        <v>712</v>
+      </c>
+      <c r="D234" t="s">
+        <v>724</v>
+      </c>
+      <c r="E234" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C235" t="s">
+        <v>712</v>
+      </c>
+      <c r="D235" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C236" t="s">
+        <v>712</v>
+      </c>
+      <c r="D236" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C237" t="s">
+        <v>712</v>
+      </c>
+      <c r="D237" t="s">
+        <v>724</v>
+      </c>
+      <c r="E237" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C238" t="s">
+        <v>713</v>
+      </c>
+      <c r="D238" t="s">
+        <v>724</v>
+      </c>
+      <c r="E238" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C239" t="s">
+        <v>713</v>
+      </c>
+      <c r="D239" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C240" t="s">
+        <v>713</v>
+      </c>
+      <c r="D240" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C241" t="s">
+        <v>713</v>
+      </c>
+      <c r="D241" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C242" t="s">
+        <v>713</v>
+      </c>
+      <c r="D242" t="s">
+        <v>724</v>
+      </c>
+      <c r="E242" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C243" t="s">
+        <v>713</v>
+      </c>
+      <c r="D243" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C244" t="s">
+        <v>714</v>
+      </c>
+      <c r="D244" t="s">
+        <v>736</v>
+      </c>
+      <c r="E244" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C245" t="s">
+        <v>714</v>
+      </c>
+      <c r="D245" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C246" t="s">
+        <v>714</v>
+      </c>
+      <c r="D246" t="s">
+        <v>724</v>
+      </c>
+      <c r="E246" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C247" t="s">
+        <v>714</v>
+      </c>
+      <c r="D247" t="s">
+        <v>724</v>
+      </c>
+      <c r="E247" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C248" t="s">
+        <v>714</v>
+      </c>
+      <c r="D248" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C249" t="s">
+        <v>714</v>
+      </c>
+      <c r="D249" t="s">
+        <v>724</v>
+      </c>
+      <c r="E249" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C250" t="s">
+        <v>715</v>
+      </c>
+      <c r="D250" t="s">
+        <v>724</v>
+      </c>
+      <c r="E250" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C251" t="s">
+        <v>715</v>
+      </c>
+      <c r="D251" t="s">
+        <v>732</v>
+      </c>
+      <c r="E251" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C252" t="s">
+        <v>715</v>
+      </c>
+      <c r="D252" t="s">
+        <v>741</v>
+      </c>
+      <c r="E252" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C253" t="s">
+        <v>715</v>
+      </c>
+      <c r="D253" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C254" t="s">
+        <v>715</v>
+      </c>
+      <c r="D254" t="s">
+        <v>727</v>
+      </c>
+      <c r="E254" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C255" t="s">
+        <v>715</v>
+      </c>
+      <c r="D255" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C256" t="s">
+        <v>715</v>
+      </c>
+      <c r="D256" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C257" t="s">
+        <v>715</v>
+      </c>
+      <c r="D257" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C258" t="s">
+        <v>716</v>
+      </c>
+      <c r="D258" t="s">
+        <v>724</v>
+      </c>
+      <c r="E258" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C259" t="s">
+        <v>716</v>
+      </c>
+      <c r="D259" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C260" t="s">
+        <v>716</v>
+      </c>
+      <c r="D260" t="s">
+        <v>736</v>
+      </c>
+      <c r="E260" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C261" t="s">
+        <v>716</v>
+      </c>
+      <c r="D261" t="s">
+        <v>734</v>
+      </c>
+      <c r="E261" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C262" t="s">
+        <v>716</v>
+      </c>
+      <c r="D262" t="s">
+        <v>724</v>
+      </c>
+      <c r="E262" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C263" t="s">
+        <v>716</v>
+      </c>
+      <c r="D263" t="s">
+        <v>725</v>
+      </c>
+      <c r="E263" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C264" t="s">
+        <v>716</v>
+      </c>
+      <c r="D264" t="s">
+        <v>745</v>
+      </c>
+      <c r="E264" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C265" t="s">
+        <v>716</v>
+      </c>
+      <c r="D265" t="s">
+        <v>724</v>
+      </c>
+      <c r="E265" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C266" t="s">
+        <v>716</v>
+      </c>
+      <c r="D266" t="s">
+        <v>724</v>
+      </c>
+      <c r="E266" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C267" t="s">
+        <v>717</v>
+      </c>
+      <c r="D267" t="s">
+        <v>730</v>
+      </c>
+      <c r="E267" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C268" t="s">
+        <v>717</v>
+      </c>
+      <c r="D268" t="s">
+        <v>730</v>
+      </c>
+      <c r="E268" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C269" t="s">
+        <v>717</v>
+      </c>
+      <c r="D269" t="s">
+        <v>724</v>
+      </c>
+      <c r="E269" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C270" t="s">
+        <v>717</v>
+      </c>
+      <c r="D270" t="s">
+        <v>730</v>
+      </c>
+      <c r="E270" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C271" t="s">
+        <v>717</v>
+      </c>
+      <c r="D271" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C272" t="s">
+        <v>718</v>
+      </c>
+      <c r="D272" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C273" t="s">
+        <v>718</v>
+      </c>
+      <c r="D273" t="s">
+        <v>751</v>
+      </c>
+      <c r="E273" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C274" t="s">
+        <v>719</v>
+      </c>
+      <c r="D274" t="s">
+        <v>732</v>
+      </c>
+      <c r="E274" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
         <v>278</v>
       </c>
-      <c r="D111" t="s">
+      <c r="B275" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C275" t="s">
+        <v>719</v>
+      </c>
+      <c r="D275" t="s">
+        <v>724</v>
+      </c>
+      <c r="E275" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
         <v>279</v>
       </c>
-      <c r="E111" t="s">
+      <c r="B276" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C276" t="s">
+        <v>719</v>
+      </c>
+      <c r="D276" t="s">
+        <v>724</v>
+      </c>
+      <c r="E276" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C277" t="s">
+        <v>719</v>
+      </c>
+      <c r="D277" t="s">
+        <v>726</v>
+      </c>
+      <c r="E277" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C278" t="s">
+        <v>719</v>
+      </c>
+      <c r="D278" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C279" t="s">
+        <v>720</v>
+      </c>
+      <c r="D279" t="s">
+        <v>724</v>
+      </c>
+      <c r="E279" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C280" t="s">
+        <v>720</v>
+      </c>
+      <c r="D280" t="s">
+        <v>724</v>
+      </c>
+      <c r="E280" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C281" t="s">
+        <v>720</v>
+      </c>
+      <c r="D281" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C282" t="s">
+        <v>720</v>
+      </c>
+      <c r="D282" t="s">
+        <v>730</v>
+      </c>
+      <c r="E282" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C283" t="s">
+        <v>720</v>
+      </c>
+      <c r="D283" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C284" t="s">
+        <v>720</v>
+      </c>
+      <c r="D284" t="s">
+        <v>724</v>
+      </c>
+      <c r="E284" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C285" t="s">
+        <v>720</v>
+      </c>
+      <c r="D285" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C286" t="s">
+        <v>721</v>
+      </c>
+      <c r="D286" t="s">
+        <v>724</v>
+      </c>
+      <c r="E286" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C287" t="s">
+        <v>721</v>
+      </c>
+      <c r="D287" t="s">
+        <v>727</v>
+      </c>
+      <c r="E287" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C288" t="s">
+        <v>721</v>
+      </c>
+      <c r="D288" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C289" t="s">
+        <v>721</v>
+      </c>
+      <c r="D289" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C290" t="s">
+        <v>721</v>
+      </c>
+      <c r="D290" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C291" t="s">
+        <v>721</v>
+      </c>
+      <c r="D291" t="s">
+        <v>732</v>
+      </c>
+      <c r="E291" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C292" t="s">
+        <v>721</v>
+      </c>
+      <c r="D292" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C293" t="s">
+        <v>721</v>
+      </c>
+      <c r="D293" t="s">
+        <v>730</v>
+      </c>
+      <c r="E293" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C294" t="s">
+        <v>721</v>
+      </c>
+      <c r="D294" t="s">
+        <v>724</v>
+      </c>
+      <c r="E294" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C295" t="s">
+        <v>721</v>
+      </c>
+      <c r="D295" t="s">
+        <v>742</v>
+      </c>
+      <c r="E295" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C296" t="s">
+        <v>722</v>
+      </c>
+      <c r="D296" t="s">
+        <v>724</v>
+      </c>
+      <c r="E296" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C297" t="s">
+        <v>722</v>
+      </c>
+      <c r="D297" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C298" t="s">
+        <v>722</v>
+      </c>
+      <c r="D298" t="s">
+        <v>732</v>
+      </c>
+      <c r="E298" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C299" t="s">
+        <v>722</v>
+      </c>
+      <c r="D299" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C300" t="s">
+        <v>722</v>
+      </c>
+      <c r="D300" t="s">
+        <v>724</v>
+      </c>
+      <c r="E300" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C301" t="s">
+        <v>722</v>
+      </c>
+      <c r="D301" t="s">
+        <v>724</v>
+      </c>
+      <c r="E301" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
         <v>305</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C302" t="s">
+        <v>722</v>
+      </c>
+      <c r="D302" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C303" t="s">
+        <v>722</v>
+      </c>
+      <c r="D303" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C304" t="s">
+        <v>722</v>
+      </c>
+      <c r="D304" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C305" t="s">
+        <v>723</v>
+      </c>
+      <c r="D305" t="s">
+        <v>725</v>
+      </c>
+      <c r="E305" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>309</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C306" t="s">
+        <v>723</v>
+      </c>
+      <c r="D306" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>310</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C307" t="s">
+        <v>723</v>
+      </c>
+      <c r="D307" t="s">
+        <v>730</v>
+      </c>
+      <c r="E307" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C308" t="s">
+        <v>723</v>
+      </c>
+      <c r="D308" t="s">
+        <v>724</v>
+      </c>
+      <c r="E308" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>312</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C309" t="s">
+        <v>723</v>
+      </c>
+      <c r="D309" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>313</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C310" t="s">
+        <v>723</v>
+      </c>
+      <c r="D310" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C311" t="s">
+        <v>723</v>
+      </c>
+      <c r="D311" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>315</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C312" t="s">
+        <v>723</v>
+      </c>
+      <c r="D312" t="s">
+        <v>724</v>
+      </c>
+      <c r="E312" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>316</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C313" t="s">
+        <v>723</v>
+      </c>
+      <c r="D313" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>317</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C314" t="s">
+        <v>723</v>
+      </c>
+      <c r="D314" t="s">
+        <v>724</v>
+      </c>
+      <c r="E314" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -3274,6 +7979,209 @@
     <hyperlink ref="B109" r:id="rId108"/>
     <hyperlink ref="B110" r:id="rId109"/>
     <hyperlink ref="B111" r:id="rId110"/>
+    <hyperlink ref="B112" r:id="rId111"/>
+    <hyperlink ref="B113" r:id="rId112"/>
+    <hyperlink ref="B114" r:id="rId113"/>
+    <hyperlink ref="B115" r:id="rId114"/>
+    <hyperlink ref="B116" r:id="rId115"/>
+    <hyperlink ref="B117" r:id="rId116"/>
+    <hyperlink ref="B118" r:id="rId117"/>
+    <hyperlink ref="B119" r:id="rId118"/>
+    <hyperlink ref="B120" r:id="rId119"/>
+    <hyperlink ref="B121" r:id="rId120"/>
+    <hyperlink ref="B122" r:id="rId121"/>
+    <hyperlink ref="B123" r:id="rId122"/>
+    <hyperlink ref="B124" r:id="rId123"/>
+    <hyperlink ref="B125" r:id="rId124"/>
+    <hyperlink ref="B126" r:id="rId125"/>
+    <hyperlink ref="B127" r:id="rId126"/>
+    <hyperlink ref="B128" r:id="rId127"/>
+    <hyperlink ref="B129" r:id="rId128"/>
+    <hyperlink ref="B130" r:id="rId129"/>
+    <hyperlink ref="B131" r:id="rId130"/>
+    <hyperlink ref="B132" r:id="rId131"/>
+    <hyperlink ref="B133" r:id="rId132"/>
+    <hyperlink ref="B134" r:id="rId133"/>
+    <hyperlink ref="B135" r:id="rId134"/>
+    <hyperlink ref="B136" r:id="rId135"/>
+    <hyperlink ref="B137" r:id="rId136"/>
+    <hyperlink ref="B138" r:id="rId137"/>
+    <hyperlink ref="B139" r:id="rId138"/>
+    <hyperlink ref="B140" r:id="rId139"/>
+    <hyperlink ref="B141" r:id="rId140"/>
+    <hyperlink ref="B142" r:id="rId141"/>
+    <hyperlink ref="B143" r:id="rId142"/>
+    <hyperlink ref="B144" r:id="rId143"/>
+    <hyperlink ref="B145" r:id="rId144"/>
+    <hyperlink ref="B146" r:id="rId145"/>
+    <hyperlink ref="B147" r:id="rId146"/>
+    <hyperlink ref="B148" r:id="rId147"/>
+    <hyperlink ref="B149" r:id="rId148"/>
+    <hyperlink ref="B150" r:id="rId149"/>
+    <hyperlink ref="B151" r:id="rId150"/>
+    <hyperlink ref="B152" r:id="rId151"/>
+    <hyperlink ref="B153" r:id="rId152"/>
+    <hyperlink ref="B154" r:id="rId153"/>
+    <hyperlink ref="B155" r:id="rId154"/>
+    <hyperlink ref="B156" r:id="rId155"/>
+    <hyperlink ref="B157" r:id="rId156"/>
+    <hyperlink ref="B158" r:id="rId157"/>
+    <hyperlink ref="B159" r:id="rId158"/>
+    <hyperlink ref="B160" r:id="rId159"/>
+    <hyperlink ref="B161" r:id="rId160"/>
+    <hyperlink ref="B162" r:id="rId161"/>
+    <hyperlink ref="B163" r:id="rId162"/>
+    <hyperlink ref="B164" r:id="rId163"/>
+    <hyperlink ref="B165" r:id="rId164"/>
+    <hyperlink ref="B166" r:id="rId165"/>
+    <hyperlink ref="B167" r:id="rId166"/>
+    <hyperlink ref="B168" r:id="rId167"/>
+    <hyperlink ref="B169" r:id="rId168"/>
+    <hyperlink ref="B170" r:id="rId169"/>
+    <hyperlink ref="B171" r:id="rId170"/>
+    <hyperlink ref="B172" r:id="rId171"/>
+    <hyperlink ref="B173" r:id="rId172"/>
+    <hyperlink ref="B174" r:id="rId173"/>
+    <hyperlink ref="B175" r:id="rId174"/>
+    <hyperlink ref="B176" r:id="rId175"/>
+    <hyperlink ref="B177" r:id="rId176"/>
+    <hyperlink ref="B178" r:id="rId177"/>
+    <hyperlink ref="B179" r:id="rId178"/>
+    <hyperlink ref="B180" r:id="rId179"/>
+    <hyperlink ref="B181" r:id="rId180"/>
+    <hyperlink ref="B182" r:id="rId181"/>
+    <hyperlink ref="B183" r:id="rId182"/>
+    <hyperlink ref="B184" r:id="rId183"/>
+    <hyperlink ref="B185" r:id="rId184"/>
+    <hyperlink ref="B186" r:id="rId185"/>
+    <hyperlink ref="B187" r:id="rId186"/>
+    <hyperlink ref="B188" r:id="rId187"/>
+    <hyperlink ref="B189" r:id="rId188"/>
+    <hyperlink ref="B190" r:id="rId189"/>
+    <hyperlink ref="B191" r:id="rId190"/>
+    <hyperlink ref="B192" r:id="rId191"/>
+    <hyperlink ref="B193" r:id="rId192"/>
+    <hyperlink ref="B194" r:id="rId193"/>
+    <hyperlink ref="B195" r:id="rId194"/>
+    <hyperlink ref="B196" r:id="rId195"/>
+    <hyperlink ref="B197" r:id="rId196"/>
+    <hyperlink ref="B198" r:id="rId197"/>
+    <hyperlink ref="B199" r:id="rId198"/>
+    <hyperlink ref="B200" r:id="rId199"/>
+    <hyperlink ref="B201" r:id="rId200"/>
+    <hyperlink ref="B202" r:id="rId201"/>
+    <hyperlink ref="B203" r:id="rId202"/>
+    <hyperlink ref="B204" r:id="rId203"/>
+    <hyperlink ref="B205" r:id="rId204"/>
+    <hyperlink ref="B206" r:id="rId205"/>
+    <hyperlink ref="B207" r:id="rId206"/>
+    <hyperlink ref="B208" r:id="rId207"/>
+    <hyperlink ref="B209" r:id="rId208"/>
+    <hyperlink ref="B210" r:id="rId209"/>
+    <hyperlink ref="B211" r:id="rId210"/>
+    <hyperlink ref="B212" r:id="rId211"/>
+    <hyperlink ref="B213" r:id="rId212"/>
+    <hyperlink ref="B214" r:id="rId213"/>
+    <hyperlink ref="B215" r:id="rId214"/>
+    <hyperlink ref="B216" r:id="rId215"/>
+    <hyperlink ref="B217" r:id="rId216"/>
+    <hyperlink ref="B218" r:id="rId217"/>
+    <hyperlink ref="B219" r:id="rId218"/>
+    <hyperlink ref="B220" r:id="rId219"/>
+    <hyperlink ref="B221" r:id="rId220"/>
+    <hyperlink ref="B222" r:id="rId221"/>
+    <hyperlink ref="B223" r:id="rId222"/>
+    <hyperlink ref="B224" r:id="rId223"/>
+    <hyperlink ref="B225" r:id="rId224"/>
+    <hyperlink ref="B226" r:id="rId225"/>
+    <hyperlink ref="B227" r:id="rId226"/>
+    <hyperlink ref="B228" r:id="rId227"/>
+    <hyperlink ref="B229" r:id="rId228"/>
+    <hyperlink ref="B230" r:id="rId229"/>
+    <hyperlink ref="B231" r:id="rId230"/>
+    <hyperlink ref="B232" r:id="rId231"/>
+    <hyperlink ref="B233" r:id="rId232"/>
+    <hyperlink ref="B234" r:id="rId233"/>
+    <hyperlink ref="B235" r:id="rId234"/>
+    <hyperlink ref="B236" r:id="rId235"/>
+    <hyperlink ref="B237" r:id="rId236"/>
+    <hyperlink ref="B238" r:id="rId237"/>
+    <hyperlink ref="B239" r:id="rId238"/>
+    <hyperlink ref="B240" r:id="rId239"/>
+    <hyperlink ref="B241" r:id="rId240"/>
+    <hyperlink ref="B242" r:id="rId241"/>
+    <hyperlink ref="B243" r:id="rId242"/>
+    <hyperlink ref="B244" r:id="rId243"/>
+    <hyperlink ref="B245" r:id="rId244"/>
+    <hyperlink ref="B246" r:id="rId245"/>
+    <hyperlink ref="B247" r:id="rId246"/>
+    <hyperlink ref="B248" r:id="rId247"/>
+    <hyperlink ref="B249" r:id="rId248"/>
+    <hyperlink ref="B250" r:id="rId249"/>
+    <hyperlink ref="B251" r:id="rId250"/>
+    <hyperlink ref="B252" r:id="rId251"/>
+    <hyperlink ref="B253" r:id="rId252"/>
+    <hyperlink ref="B254" r:id="rId253"/>
+    <hyperlink ref="B255" r:id="rId254"/>
+    <hyperlink ref="B256" r:id="rId255"/>
+    <hyperlink ref="B257" r:id="rId256"/>
+    <hyperlink ref="B258" r:id="rId257"/>
+    <hyperlink ref="B259" r:id="rId258"/>
+    <hyperlink ref="B260" r:id="rId259"/>
+    <hyperlink ref="B261" r:id="rId260"/>
+    <hyperlink ref="B262" r:id="rId261"/>
+    <hyperlink ref="B263" r:id="rId262"/>
+    <hyperlink ref="B264" r:id="rId263"/>
+    <hyperlink ref="B265" r:id="rId264"/>
+    <hyperlink ref="B266" r:id="rId265"/>
+    <hyperlink ref="B267" r:id="rId266"/>
+    <hyperlink ref="B268" r:id="rId267"/>
+    <hyperlink ref="B269" r:id="rId268"/>
+    <hyperlink ref="B270" r:id="rId269"/>
+    <hyperlink ref="B271" r:id="rId270"/>
+    <hyperlink ref="B272" r:id="rId271"/>
+    <hyperlink ref="B273" r:id="rId272"/>
+    <hyperlink ref="B274" r:id="rId273"/>
+    <hyperlink ref="B275" r:id="rId274"/>
+    <hyperlink ref="B276" r:id="rId275"/>
+    <hyperlink ref="B277" r:id="rId276"/>
+    <hyperlink ref="B278" r:id="rId277"/>
+    <hyperlink ref="B279" r:id="rId278"/>
+    <hyperlink ref="B280" r:id="rId279"/>
+    <hyperlink ref="B281" r:id="rId280"/>
+    <hyperlink ref="B282" r:id="rId281"/>
+    <hyperlink ref="B283" r:id="rId282"/>
+    <hyperlink ref="B284" r:id="rId283"/>
+    <hyperlink ref="B285" r:id="rId284"/>
+    <hyperlink ref="B286" r:id="rId285"/>
+    <hyperlink ref="B287" r:id="rId286"/>
+    <hyperlink ref="B288" r:id="rId287"/>
+    <hyperlink ref="B289" r:id="rId288"/>
+    <hyperlink ref="B290" r:id="rId289"/>
+    <hyperlink ref="B291" r:id="rId290"/>
+    <hyperlink ref="B292" r:id="rId291"/>
+    <hyperlink ref="B293" r:id="rId292"/>
+    <hyperlink ref="B294" r:id="rId293"/>
+    <hyperlink ref="B295" r:id="rId294"/>
+    <hyperlink ref="B296" r:id="rId295"/>
+    <hyperlink ref="B297" r:id="rId296"/>
+    <hyperlink ref="B298" r:id="rId297"/>
+    <hyperlink ref="B299" r:id="rId298"/>
+    <hyperlink ref="B300" r:id="rId299"/>
+    <hyperlink ref="B301" r:id="rId300"/>
+    <hyperlink ref="B302" r:id="rId301"/>
+    <hyperlink ref="B303" r:id="rId302"/>
+    <hyperlink ref="B304" r:id="rId303"/>
+    <hyperlink ref="B305" r:id="rId304"/>
+    <hyperlink ref="B306" r:id="rId305"/>
+    <hyperlink ref="B307" r:id="rId306"/>
+    <hyperlink ref="B308" r:id="rId307"/>
+    <hyperlink ref="B309" r:id="rId308"/>
+    <hyperlink ref="B310" r:id="rId309"/>
+    <hyperlink ref="B311" r:id="rId310"/>
+    <hyperlink ref="B312" r:id="rId311"/>
+    <hyperlink ref="B313" r:id="rId312"/>
+    <hyperlink ref="B314" r:id="rId313"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
